--- a/DATA/collate_cultivar_data_new_order/data/kcp_vs_smoothed_cumul_gdd.xlsx
+++ b/DATA/collate_cultivar_data_new_order/data/kcp_vs_smoothed_cumul_gdd.xlsx
@@ -411,7 +411,7 @@
         <v>10.1054208</v>
       </c>
       <c r="C2">
-        <v>0.1095457</v>
+        <v>0.1106682</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -422,7 +422,7 @@
         <v>10.1054208</v>
       </c>
       <c r="C3">
-        <v>0.1095457</v>
+        <v>0.1106682</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -433,7 +433,7 @@
         <v>10.6488464</v>
       </c>
       <c r="C4">
-        <v>0.1095457</v>
+        <v>0.1106682</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -444,7 +444,7 @@
         <v>10.6488464</v>
       </c>
       <c r="C5">
-        <v>0.1095457</v>
+        <v>0.1106682</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -455,7 +455,7 @@
         <v>11.2250248</v>
       </c>
       <c r="C6">
-        <v>0.1095457</v>
+        <v>0.1106682</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -466,7 +466,7 @@
         <v>11.2250248</v>
       </c>
       <c r="C7">
-        <v>0.1095457</v>
+        <v>0.1106682</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -477,7 +477,7 @@
         <v>11.8360834</v>
       </c>
       <c r="C8">
-        <v>0.1095457</v>
+        <v>0.1106682</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -488,7 +488,7 @@
         <v>11.8360834</v>
       </c>
       <c r="C9">
-        <v>0.1095457</v>
+        <v>0.1106682</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -499,7 +499,7 @@
         <v>12.4842068</v>
       </c>
       <c r="C10">
-        <v>0.1095457</v>
+        <v>0.1106682</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -510,7 +510,7 @@
         <v>12.4842068</v>
       </c>
       <c r="C11">
-        <v>0.1095457</v>
+        <v>0.1106682</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -521,7 +521,7 @@
         <v>13.1716023</v>
       </c>
       <c r="C12">
-        <v>0.1095457</v>
+        <v>0.1106682</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -532,7 +532,7 @@
         <v>13.1716023</v>
       </c>
       <c r="C13">
-        <v>0.1095457</v>
+        <v>0.1106682</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -543,7 +543,7 @@
         <v>13.9004552</v>
       </c>
       <c r="C14">
-        <v>0.1095457</v>
+        <v>0.1106682</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -554,7 +554,7 @@
         <v>13.9004552</v>
       </c>
       <c r="C15">
-        <v>0.1095457</v>
+        <v>0.1106682</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -565,7 +565,7 @@
         <v>14.6728732</v>
       </c>
       <c r="C16">
-        <v>0.1101343</v>
+        <v>0.1110362</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -576,7 +576,7 @@
         <v>14.6728732</v>
       </c>
       <c r="C17">
-        <v>0.1101343</v>
+        <v>0.1110362</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -587,7 +587,7 @@
         <v>15.4908179</v>
       </c>
       <c r="C18">
-        <v>0.1101343</v>
+        <v>0.1110362</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -598,7 +598,7 @@
         <v>15.4908179</v>
       </c>
       <c r="C19">
-        <v>0.1101343</v>
+        <v>0.1110362</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -609,7 +609,7 @@
         <v>16.356026</v>
       </c>
       <c r="C20">
-        <v>0.1101343</v>
+        <v>0.1110362</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -620,7 +620,7 @@
         <v>16.356026</v>
       </c>
       <c r="C21">
-        <v>0.1101343</v>
+        <v>0.1110362</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -631,7 +631,7 @@
         <v>17.2699193</v>
       </c>
       <c r="C22">
-        <v>0.1101343</v>
+        <v>0.1110362</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -642,7 +642,7 @@
         <v>17.2699193</v>
       </c>
       <c r="C23">
-        <v>0.1101343</v>
+        <v>0.1110362</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -653,7 +653,7 @@
         <v>18.233507</v>
       </c>
       <c r="C24">
-        <v>0.1101343</v>
+        <v>0.1110362</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -664,7 +664,7 @@
         <v>18.233507</v>
       </c>
       <c r="C25">
-        <v>0.1101343</v>
+        <v>0.1110362</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -675,7 +675,7 @@
         <v>19.2472831</v>
       </c>
       <c r="C26">
-        <v>0.1101343</v>
+        <v>0.1110362</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -686,7 +686,7 @@
         <v>19.2472831</v>
       </c>
       <c r="C27">
-        <v>0.1101343</v>
+        <v>0.1110362</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -697,7 +697,7 @@
         <v>20.311124</v>
       </c>
       <c r="C28">
-        <v>0.1101343</v>
+        <v>0.1110362</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -708,7 +708,7 @@
         <v>20.311124</v>
       </c>
       <c r="C29">
-        <v>0.1101343</v>
+        <v>0.1110362</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -719,7 +719,7 @@
         <v>21.4241912</v>
       </c>
       <c r="C30">
-        <v>0.1107684</v>
+        <v>0.1113968</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -730,7 +730,7 @@
         <v>21.4241912</v>
       </c>
       <c r="C31">
-        <v>0.1107684</v>
+        <v>0.1113968</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -741,7 +741,7 @@
         <v>22.5848463</v>
       </c>
       <c r="C32">
-        <v>0.1107684</v>
+        <v>0.1113968</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -752,7 +752,7 @@
         <v>22.5848463</v>
       </c>
       <c r="C33">
-        <v>0.1107684</v>
+        <v>0.1113968</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -763,7 +763,7 @@
         <v>23.7905841</v>
       </c>
       <c r="C34">
-        <v>0.1107684</v>
+        <v>0.1113968</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -774,7 +774,7 @@
         <v>23.7905841</v>
       </c>
       <c r="C35">
-        <v>0.1107684</v>
+        <v>0.1113968</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -785,7 +785,7 @@
         <v>25.0379917</v>
       </c>
       <c r="C36">
-        <v>0.1107684</v>
+        <v>0.1113968</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -796,7 +796,7 @@
         <v>25.0379917</v>
       </c>
       <c r="C37">
-        <v>0.1107684</v>
+        <v>0.1113968</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -807,7 +807,7 @@
         <v>26.3227385</v>
       </c>
       <c r="C38">
-        <v>0.1107684</v>
+        <v>0.1113968</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -818,7 +818,7 @@
         <v>26.3227385</v>
       </c>
       <c r="C39">
-        <v>0.1107684</v>
+        <v>0.1113968</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -829,7 +829,7 @@
         <v>27.6396014</v>
       </c>
       <c r="C40">
-        <v>0.1107684</v>
+        <v>0.1113968</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -840,7 +840,7 @@
         <v>27.6396014</v>
       </c>
       <c r="C41">
-        <v>0.1107684</v>
+        <v>0.1113968</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -851,7 +851,7 @@
         <v>28.9825292</v>
       </c>
       <c r="C42">
-        <v>0.1107684</v>
+        <v>0.1113968</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -862,7 +862,7 @@
         <v>28.9825292</v>
       </c>
       <c r="C43">
-        <v>0.1107684</v>
+        <v>0.1113968</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -873,7 +873,7 @@
         <v>30.3447445</v>
       </c>
       <c r="C44">
-        <v>0.1113657</v>
+        <v>0.1117005</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -884,7 +884,7 @@
         <v>30.3447445</v>
       </c>
       <c r="C45">
-        <v>0.1113657</v>
+        <v>0.1117005</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -895,7 +895,7 @@
         <v>31.7188824</v>
       </c>
       <c r="C46">
-        <v>0.1113657</v>
+        <v>0.1117005</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -906,7 +906,7 @@
         <v>31.7188824</v>
       </c>
       <c r="C47">
-        <v>0.1113657</v>
+        <v>0.1117005</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -917,7 +917,7 @@
         <v>33.0971601</v>
       </c>
       <c r="C48">
-        <v>0.1113657</v>
+        <v>0.1117005</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -928,7 +928,7 @@
         <v>33.0971601</v>
       </c>
       <c r="C49">
-        <v>0.1113657</v>
+        <v>0.1117005</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -939,7 +939,7 @@
         <v>34.4715717</v>
       </c>
       <c r="C50">
-        <v>0.1113657</v>
+        <v>0.1117005</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -950,7 +950,7 @@
         <v>34.4715717</v>
       </c>
       <c r="C51">
-        <v>0.1113657</v>
+        <v>0.1117005</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -961,7 +961,7 @@
         <v>35.8340982</v>
       </c>
       <c r="C52">
-        <v>0.1113657</v>
+        <v>0.1117005</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -972,7 +972,7 @@
         <v>35.8340982</v>
       </c>
       <c r="C53">
-        <v>0.1113657</v>
+        <v>0.1117005</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -983,7 +983,7 @@
         <v>37.176925</v>
       </c>
       <c r="C54">
-        <v>0.1113657</v>
+        <v>0.1117005</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -994,7 +994,7 @@
         <v>37.176925</v>
       </c>
       <c r="C55">
-        <v>0.1113657</v>
+        <v>0.1117005</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1005,7 +1005,7 @@
         <v>38.4926556</v>
       </c>
       <c r="C56">
-        <v>0.1113657</v>
+        <v>0.1117005</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1016,7 +1016,7 @@
         <v>38.4926556</v>
       </c>
       <c r="C57">
-        <v>0.1113657</v>
+        <v>0.1117005</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1027,7 +1027,7 @@
         <v>39.7745129</v>
       </c>
       <c r="C58">
-        <v>0.1118316</v>
+        <v>0.1119082</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1038,7 +1038,7 @@
         <v>39.7745129</v>
       </c>
       <c r="C59">
-        <v>0.1118316</v>
+        <v>0.1119082</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1049,7 +1049,7 @@
         <v>41.0165199</v>
       </c>
       <c r="C60">
-        <v>0.1118316</v>
+        <v>0.1119082</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1060,7 +1060,7 @@
         <v>41.0165199</v>
       </c>
       <c r="C61">
-        <v>0.1118316</v>
+        <v>0.1119082</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1071,7 +1071,7 @@
         <v>42.2136523</v>
       </c>
       <c r="C62">
-        <v>0.1118316</v>
+        <v>0.1119082</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1082,7 +1082,7 @@
         <v>42.2136523</v>
       </c>
       <c r="C63">
-        <v>0.1118316</v>
+        <v>0.1119082</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1093,7 +1093,7 @@
         <v>43.3619594</v>
       </c>
       <c r="C64">
-        <v>0.1118316</v>
+        <v>0.1119082</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1104,7 +1104,7 @@
         <v>43.3619594</v>
       </c>
       <c r="C65">
-        <v>0.1118316</v>
+        <v>0.1119082</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1115,7 +1115,7 @@
         <v>44.4586477</v>
       </c>
       <c r="C66">
-        <v>0.1118316</v>
+        <v>0.1119082</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1126,7 +1126,7 @@
         <v>44.4586477</v>
       </c>
       <c r="C67">
-        <v>0.1118316</v>
+        <v>0.1119082</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1137,7 +1137,7 @@
         <v>45.502129</v>
       </c>
       <c r="C68">
-        <v>0.1118316</v>
+        <v>0.1119082</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1148,7 +1148,7 @@
         <v>45.502129</v>
       </c>
       <c r="C69">
-        <v>0.1118316</v>
+        <v>0.1119082</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1159,7 +1159,7 @@
         <v>46.4920309</v>
       </c>
       <c r="C70">
-        <v>0.1118316</v>
+        <v>0.1119082</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1170,7 +1170,7 @@
         <v>46.4920309</v>
       </c>
       <c r="C71">
-        <v>0.1118316</v>
+        <v>0.1119082</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1181,7 +1181,7 @@
         <v>47.4291733</v>
       </c>
       <c r="C72">
-        <v>0.1120966</v>
+        <v>0.112014</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1192,7 +1192,7 @@
         <v>47.4291733</v>
       </c>
       <c r="C73">
-        <v>0.1120966</v>
+        <v>0.112014</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1203,7 +1203,7 @@
         <v>48.3155136</v>
       </c>
       <c r="C74">
-        <v>0.1120966</v>
+        <v>0.112014</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1214,7 +1214,7 @@
         <v>48.3155136</v>
       </c>
       <c r="C75">
-        <v>0.1120966</v>
+        <v>0.112014</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1225,7 +1225,7 @@
         <v>49.1540654</v>
       </c>
       <c r="C76">
-        <v>0.1120966</v>
+        <v>0.112014</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1236,7 +1236,7 @@
         <v>49.1540654</v>
       </c>
       <c r="C77">
-        <v>0.1120966</v>
+        <v>0.112014</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1247,7 +1247,7 @@
         <v>49.9487942</v>
       </c>
       <c r="C78">
-        <v>0.1120966</v>
+        <v>0.112014</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1258,7 +1258,7 @@
         <v>49.9487942</v>
       </c>
       <c r="C79">
-        <v>0.1120966</v>
+        <v>0.112014</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1269,7 +1269,7 @@
         <v>50.7044969</v>
       </c>
       <c r="C80">
-        <v>0.1120966</v>
+        <v>0.112014</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1280,7 +1280,7 @@
         <v>50.7044969</v>
       </c>
       <c r="C81">
-        <v>0.1120966</v>
+        <v>0.112014</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1291,7 +1291,7 @@
         <v>51.4266684</v>
       </c>
       <c r="C82">
-        <v>0.1120966</v>
+        <v>0.112014</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1302,7 +1302,7 @@
         <v>51.4266684</v>
       </c>
       <c r="C83">
-        <v>0.1120966</v>
+        <v>0.112014</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1313,7 +1313,7 @@
         <v>52.1213615</v>
       </c>
       <c r="C84">
-        <v>0.1120966</v>
+        <v>0.112014</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1324,7 +1324,7 @@
         <v>52.1213615</v>
       </c>
       <c r="C85">
-        <v>0.1120966</v>
+        <v>0.112014</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1335,7 +1335,7 @@
         <v>52.7950433</v>
       </c>
       <c r="C86">
-        <v>0.1121765</v>
+        <v>0.1120736</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1346,7 +1346,7 @@
         <v>52.7950433</v>
       </c>
       <c r="C87">
-        <v>0.1121765</v>
+        <v>0.1120736</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1357,7 +1357,7 @@
         <v>53.4544526</v>
       </c>
       <c r="C88">
-        <v>0.1121765</v>
+        <v>0.1120736</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1368,7 +1368,7 @@
         <v>53.4544526</v>
       </c>
       <c r="C89">
-        <v>0.1121765</v>
+        <v>0.1120736</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1379,7 +1379,7 @@
         <v>54.1064611</v>
       </c>
       <c r="C90">
-        <v>0.1121765</v>
+        <v>0.1120736</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1390,7 +1390,7 @@
         <v>54.1064611</v>
       </c>
       <c r="C91">
-        <v>0.1121765</v>
+        <v>0.1120736</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1401,7 +1401,7 @@
         <v>54.7579413</v>
       </c>
       <c r="C92">
-        <v>0.1121765</v>
+        <v>0.1120736</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1412,7 +1412,7 @@
         <v>54.7579413</v>
       </c>
       <c r="C93">
-        <v>0.1121765</v>
+        <v>0.1120736</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1423,7 +1423,7 @@
         <v>55.4156427</v>
       </c>
       <c r="C94">
-        <v>0.1121765</v>
+        <v>0.1120736</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1434,7 +1434,7 @@
         <v>55.4156427</v>
       </c>
       <c r="C95">
-        <v>0.1121765</v>
+        <v>0.1120736</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1445,7 +1445,7 @@
         <v>56.0860783</v>
       </c>
       <c r="C96">
-        <v>0.1121765</v>
+        <v>0.1120736</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1456,7 +1456,7 @@
         <v>56.0860783</v>
       </c>
       <c r="C97">
-        <v>0.1121765</v>
+        <v>0.1120736</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1467,7 +1467,7 @@
         <v>56.775422</v>
       </c>
       <c r="C98">
-        <v>0.1121765</v>
+        <v>0.1120736</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1478,7 +1478,7 @@
         <v>56.775422</v>
       </c>
       <c r="C99">
-        <v>0.1121765</v>
+        <v>0.1120736</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1489,7 +1489,7 @@
         <v>57.4894192</v>
       </c>
       <c r="C100">
-        <v>0.1122303</v>
+        <v>0.1122271</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1500,7 +1500,7 @@
         <v>57.4894192</v>
       </c>
       <c r="C101">
-        <v>0.1122303</v>
+        <v>0.1122271</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1511,7 +1511,7 @@
         <v>58.2333101</v>
       </c>
       <c r="C102">
-        <v>0.1122303</v>
+        <v>0.1122271</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1522,7 +1522,7 @@
         <v>58.2333101</v>
       </c>
       <c r="C103">
-        <v>0.1122303</v>
+        <v>0.1122271</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1533,7 +1533,7 @@
         <v>59.0117673</v>
       </c>
       <c r="C104">
-        <v>0.1122303</v>
+        <v>0.1122271</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1544,7 +1544,7 @@
         <v>59.0117673</v>
       </c>
       <c r="C105">
-        <v>0.1122303</v>
+        <v>0.1122271</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1555,7 +1555,7 @@
         <v>59.8288489</v>
       </c>
       <c r="C106">
-        <v>0.1122303</v>
+        <v>0.1122271</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1566,7 +1566,7 @@
         <v>59.8288489</v>
       </c>
       <c r="C107">
-        <v>0.1122303</v>
+        <v>0.1122271</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1577,7 +1577,7 @@
         <v>60.6879668</v>
       </c>
       <c r="C108">
-        <v>0.1122303</v>
+        <v>0.1122271</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1588,7 +1588,7 @@
         <v>60.6879668</v>
       </c>
       <c r="C109">
-        <v>0.1122303</v>
+        <v>0.1122271</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1599,7 +1599,7 @@
         <v>61.5918722</v>
       </c>
       <c r="C110">
-        <v>0.1122303</v>
+        <v>0.1122271</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1610,7 +1610,7 @@
         <v>61.5918722</v>
       </c>
       <c r="C111">
-        <v>0.1122303</v>
+        <v>0.1122271</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1621,7 +1621,7 @@
         <v>62.542658</v>
       </c>
       <c r="C112">
-        <v>0.1122303</v>
+        <v>0.1122271</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1632,7 +1632,7 @@
         <v>62.542658</v>
       </c>
       <c r="C113">
-        <v>0.1122303</v>
+        <v>0.1122271</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1643,7 +1643,7 @@
         <v>63.5417793</v>
       </c>
       <c r="C114">
-        <v>0.1125673</v>
+        <v>0.1127062</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1654,7 +1654,7 @@
         <v>63.5417793</v>
       </c>
       <c r="C115">
-        <v>0.1125673</v>
+        <v>0.1127062</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1665,7 +1665,7 @@
         <v>64.59009039999999</v>
       </c>
       <c r="C116">
-        <v>0.1125673</v>
+        <v>0.1127062</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1676,7 +1676,7 @@
         <v>64.59009039999999</v>
       </c>
       <c r="C117">
-        <v>0.1125673</v>
+        <v>0.1127062</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1687,7 +1687,7 @@
         <v>65.6878995</v>
       </c>
       <c r="C118">
-        <v>0.1125673</v>
+        <v>0.1127062</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1698,7 +1698,7 @@
         <v>65.6878995</v>
       </c>
       <c r="C119">
-        <v>0.1125673</v>
+        <v>0.1127062</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1709,7 +1709,7 @@
         <v>66.8350384</v>
       </c>
       <c r="C120">
-        <v>0.1125673</v>
+        <v>0.1127062</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1720,7 +1720,7 @@
         <v>66.8350384</v>
       </c>
       <c r="C121">
-        <v>0.1125673</v>
+        <v>0.1127062</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1731,7 +1731,7 @@
         <v>68.0309458</v>
       </c>
       <c r="C122">
-        <v>0.1125673</v>
+        <v>0.1127062</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1742,7 +1742,7 @@
         <v>68.0309458</v>
       </c>
       <c r="C123">
-        <v>0.1125673</v>
+        <v>0.1127062</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1753,7 +1753,7 @@
         <v>69.27476160000001</v>
       </c>
       <c r="C124">
-        <v>0.1125673</v>
+        <v>0.1127062</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1764,7 +1764,7 @@
         <v>69.27476160000001</v>
       </c>
       <c r="C125">
-        <v>0.1125673</v>
+        <v>0.1127062</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1775,7 +1775,7 @@
         <v>70.56543000000001</v>
       </c>
       <c r="C126">
-        <v>0.1125673</v>
+        <v>0.1127062</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1786,7 +1786,7 @@
         <v>70.56543000000001</v>
       </c>
       <c r="C127">
-        <v>0.1125673</v>
+        <v>0.1127062</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1797,7 +1797,7 @@
         <v>71.90180549999999</v>
       </c>
       <c r="C128">
-        <v>0.1135872</v>
+        <v>0.1138198</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1808,7 +1808,7 @@
         <v>71.90180549999999</v>
       </c>
       <c r="C129">
-        <v>0.1135872</v>
+        <v>0.1138198</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1819,7 +1819,7 @@
         <v>73.28276150000001</v>
       </c>
       <c r="C130">
-        <v>0.1135872</v>
+        <v>0.1138198</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1830,7 +1830,7 @@
         <v>73.28276150000001</v>
       </c>
       <c r="C131">
-        <v>0.1135872</v>
+        <v>0.1138198</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1841,7 +1841,7 @@
         <v>74.7072938</v>
       </c>
       <c r="C132">
-        <v>0.1135872</v>
+        <v>0.1138198</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1852,7 +1852,7 @@
         <v>74.7072938</v>
       </c>
       <c r="C133">
-        <v>0.1135872</v>
+        <v>0.1138198</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1863,7 +1863,7 @@
         <v>76.1746189</v>
       </c>
       <c r="C134">
-        <v>0.1135872</v>
+        <v>0.1138198</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1874,7 +1874,7 @@
         <v>76.1746189</v>
       </c>
       <c r="C135">
-        <v>0.1135872</v>
+        <v>0.1138198</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1885,7 +1885,7 @@
         <v>77.6842616</v>
       </c>
       <c r="C136">
-        <v>0.1135872</v>
+        <v>0.1138198</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1896,7 +1896,7 @@
         <v>77.6842616</v>
       </c>
       <c r="C137">
-        <v>0.1135872</v>
+        <v>0.1138198</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1907,7 +1907,7 @@
         <v>79.2361293</v>
       </c>
       <c r="C138">
-        <v>0.1135872</v>
+        <v>0.1138198</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1918,7 +1918,7 @@
         <v>79.2361293</v>
       </c>
       <c r="C139">
-        <v>0.1135872</v>
+        <v>0.1138198</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1929,7 +1929,7 @@
         <v>80.830572</v>
       </c>
       <c r="C140">
-        <v>0.1135872</v>
+        <v>0.1138198</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1940,7 +1940,7 @@
         <v>80.830572</v>
       </c>
       <c r="C141">
-        <v>0.1135872</v>
+        <v>0.1138198</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1951,7 +1951,7 @@
         <v>82.468425</v>
       </c>
       <c r="C142">
-        <v>0.1157002</v>
+        <v>0.115931</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1962,7 +1962,7 @@
         <v>82.468425</v>
       </c>
       <c r="C143">
-        <v>0.1157002</v>
+        <v>0.115931</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1973,7 +1973,7 @@
         <v>84.1510341</v>
       </c>
       <c r="C144">
-        <v>0.1157002</v>
+        <v>0.115931</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1984,7 +1984,7 @@
         <v>84.1510341</v>
       </c>
       <c r="C145">
-        <v>0.1157002</v>
+        <v>0.115931</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1995,7 +1995,7 @@
         <v>85.880263</v>
       </c>
       <c r="C146">
-        <v>0.1157002</v>
+        <v>0.115931</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2006,7 +2006,7 @@
         <v>85.880263</v>
       </c>
       <c r="C147">
-        <v>0.1157002</v>
+        <v>0.115931</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2017,7 +2017,7 @@
         <v>87.6584828</v>
       </c>
       <c r="C148">
-        <v>0.1157002</v>
+        <v>0.115931</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2028,7 +2028,7 @@
         <v>87.6584828</v>
       </c>
       <c r="C149">
-        <v>0.1157002</v>
+        <v>0.115931</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2039,7 +2039,7 @@
         <v>89.4885432</v>
       </c>
       <c r="C150">
-        <v>0.1157002</v>
+        <v>0.115931</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2050,7 +2050,7 @@
         <v>89.4885432</v>
       </c>
       <c r="C151">
-        <v>0.1157002</v>
+        <v>0.115931</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2061,7 +2061,7 @@
         <v>91.373728</v>
       </c>
       <c r="C152">
-        <v>0.1157002</v>
+        <v>0.115931</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2072,7 +2072,7 @@
         <v>91.373728</v>
       </c>
       <c r="C153">
-        <v>0.1157002</v>
+        <v>0.115931</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2083,7 +2083,7 @@
         <v>93.3176935</v>
       </c>
       <c r="C154">
-        <v>0.1157002</v>
+        <v>0.115931</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2094,7 +2094,7 @@
         <v>93.3176935</v>
       </c>
       <c r="C155">
-        <v>0.1157002</v>
+        <v>0.115931</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2105,7 +2105,7 @@
         <v>95.32439239999999</v>
       </c>
       <c r="C156">
-        <v>0.1192983</v>
+        <v>0.1194393</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2116,7 +2116,7 @@
         <v>95.32439239999999</v>
       </c>
       <c r="C157">
-        <v>0.1192983</v>
+        <v>0.1194393</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2127,7 +2127,7 @@
         <v>97.3979835</v>
       </c>
       <c r="C158">
-        <v>0.1192983</v>
+        <v>0.1194393</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2138,7 +2138,7 @@
         <v>97.3979835</v>
       </c>
       <c r="C159">
-        <v>0.1192983</v>
+        <v>0.1194393</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2149,7 +2149,7 @@
         <v>99.5427292</v>
       </c>
       <c r="C160">
-        <v>0.1192983</v>
+        <v>0.1194393</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2160,7 +2160,7 @@
         <v>99.5427292</v>
       </c>
       <c r="C161">
-        <v>0.1192983</v>
+        <v>0.1194393</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2171,7 +2171,7 @@
         <v>101.7628827</v>
       </c>
       <c r="C162">
-        <v>0.1192983</v>
+        <v>0.1194393</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2182,7 +2182,7 @@
         <v>101.7628827</v>
       </c>
       <c r="C163">
-        <v>0.1192983</v>
+        <v>0.1194393</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2193,7 +2193,7 @@
         <v>104.0625668</v>
       </c>
       <c r="C164">
-        <v>0.1192983</v>
+        <v>0.1194393</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2204,7 +2204,7 @@
         <v>104.0625668</v>
       </c>
       <c r="C165">
-        <v>0.1192983</v>
+        <v>0.1194393</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2215,7 +2215,7 @@
         <v>106.4456494</v>
       </c>
       <c r="C166">
-        <v>0.1192983</v>
+        <v>0.1194393</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2226,7 +2226,7 @@
         <v>106.4456494</v>
       </c>
       <c r="C167">
-        <v>0.1192983</v>
+        <v>0.1194393</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2237,7 +2237,7 @@
         <v>108.9156182</v>
       </c>
       <c r="C168">
-        <v>0.1192983</v>
+        <v>0.1194393</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2248,7 +2248,7 @@
         <v>108.9156182</v>
       </c>
       <c r="C169">
-        <v>0.1192983</v>
+        <v>0.1194393</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2259,7 +2259,7 @@
         <v>111.4754608</v>
       </c>
       <c r="C170">
-        <v>0.1247979</v>
+        <v>0.1247834</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2270,7 +2270,7 @@
         <v>111.4754608</v>
       </c>
       <c r="C171">
-        <v>0.1247979</v>
+        <v>0.1247834</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2281,7 +2281,7 @@
         <v>114.1275558</v>
       </c>
       <c r="C172">
-        <v>0.1247979</v>
+        <v>0.1247834</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2292,7 +2292,7 @@
         <v>114.1275558</v>
       </c>
       <c r="C173">
-        <v>0.1247979</v>
+        <v>0.1247834</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2303,7 +2303,7 @@
         <v>116.8735825</v>
       </c>
       <c r="C174">
-        <v>0.1247979</v>
+        <v>0.1247834</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2314,7 +2314,7 @@
         <v>116.8735825</v>
       </c>
       <c r="C175">
-        <v>0.1247979</v>
+        <v>0.1247834</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2325,7 +2325,7 @@
         <v>119.7144548</v>
       </c>
       <c r="C176">
-        <v>0.1247979</v>
+        <v>0.1247834</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2336,7 +2336,7 @@
         <v>119.7144548</v>
       </c>
       <c r="C177">
-        <v>0.1247979</v>
+        <v>0.1247834</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2347,7 +2347,7 @@
         <v>122.6502862</v>
       </c>
       <c r="C178">
-        <v>0.1247979</v>
+        <v>0.1247834</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2358,7 +2358,7 @@
         <v>122.6502862</v>
       </c>
       <c r="C179">
-        <v>0.1247979</v>
+        <v>0.1247834</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2369,7 +2369,7 @@
         <v>125.6803925</v>
       </c>
       <c r="C180">
-        <v>0.1247979</v>
+        <v>0.1247834</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2380,7 +2380,7 @@
         <v>125.6803925</v>
       </c>
       <c r="C181">
-        <v>0.1247979</v>
+        <v>0.1247834</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2391,7 +2391,7 @@
         <v>128.8033355</v>
       </c>
       <c r="C182">
-        <v>0.1247979</v>
+        <v>0.1247834</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2402,7 +2402,7 @@
         <v>128.8033355</v>
       </c>
       <c r="C183">
-        <v>0.1247979</v>
+        <v>0.1247834</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2413,7 +2413,7 @@
         <v>132.0170097</v>
       </c>
       <c r="C184">
-        <v>0.132718</v>
+        <v>0.1324555</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2424,7 +2424,7 @@
         <v>132.0170097</v>
       </c>
       <c r="C185">
-        <v>0.132718</v>
+        <v>0.1324555</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2435,7 +2435,7 @@
         <v>135.3187729</v>
       </c>
       <c r="C186">
-        <v>0.132718</v>
+        <v>0.1324555</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2446,7 +2446,7 @@
         <v>135.3187729</v>
       </c>
       <c r="C187">
-        <v>0.132718</v>
+        <v>0.1324555</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2457,7 +2457,7 @@
         <v>138.705615</v>
       </c>
       <c r="C188">
-        <v>0.132718</v>
+        <v>0.1324555</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2468,7 +2468,7 @@
         <v>138.705615</v>
       </c>
       <c r="C189">
-        <v>0.132718</v>
+        <v>0.1324555</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2479,7 +2479,7 @@
         <v>142.1743612</v>
       </c>
       <c r="C190">
-        <v>0.132718</v>
+        <v>0.1324555</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2490,7 +2490,7 @@
         <v>142.1743612</v>
       </c>
       <c r="C191">
-        <v>0.132718</v>
+        <v>0.1324555</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2501,7 +2501,7 @@
         <v>145.7218972</v>
       </c>
       <c r="C192">
-        <v>0.132718</v>
+        <v>0.1324555</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2512,7 +2512,7 @@
         <v>145.7218972</v>
       </c>
       <c r="C193">
-        <v>0.132718</v>
+        <v>0.1324555</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2523,7 +2523,7 @@
         <v>149.3454064</v>
       </c>
       <c r="C194">
-        <v>0.132718</v>
+        <v>0.1324555</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2534,7 +2534,7 @@
         <v>149.3454064</v>
       </c>
       <c r="C195">
-        <v>0.132718</v>
+        <v>0.1324555</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2545,7 +2545,7 @@
         <v>153.0426034</v>
       </c>
       <c r="C196">
-        <v>0.132718</v>
+        <v>0.1324555</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2556,7 +2556,7 @@
         <v>153.0426034</v>
       </c>
       <c r="C197">
-        <v>0.132718</v>
+        <v>0.1324555</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2567,7 +2567,7 @@
         <v>156.8119494</v>
       </c>
       <c r="C198">
-        <v>0.1437445</v>
+        <v>0.1430123</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2578,7 +2578,7 @@
         <v>156.8119494</v>
       </c>
       <c r="C199">
-        <v>0.1437445</v>
+        <v>0.1430123</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2589,7 +2589,7 @@
         <v>160.6528329</v>
       </c>
       <c r="C200">
-        <v>0.1437445</v>
+        <v>0.1430123</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2600,7 +2600,7 @@
         <v>160.6528329</v>
       </c>
       <c r="C201">
-        <v>0.1437445</v>
+        <v>0.1430123</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2611,7 +2611,7 @@
         <v>164.5657027</v>
       </c>
       <c r="C202">
-        <v>0.1437445</v>
+        <v>0.1430123</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2622,7 +2622,7 @@
         <v>164.5657027</v>
       </c>
       <c r="C203">
-        <v>0.1437445</v>
+        <v>0.1430123</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2633,7 +2633,7 @@
         <v>168.5521405</v>
       </c>
       <c r="C204">
-        <v>0.1437445</v>
+        <v>0.1430123</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2644,7 +2644,7 @@
         <v>168.5521405</v>
       </c>
       <c r="C205">
-        <v>0.1437445</v>
+        <v>0.1430123</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2655,7 +2655,7 @@
         <v>172.6148637</v>
       </c>
       <c r="C206">
-        <v>0.1437445</v>
+        <v>0.1430123</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2666,7 +2666,7 @@
         <v>172.6148637</v>
       </c>
       <c r="C207">
-        <v>0.1437445</v>
+        <v>0.1430123</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2677,7 +2677,7 @@
         <v>176.7576554</v>
       </c>
       <c r="C208">
-        <v>0.1437445</v>
+        <v>0.1430123</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2688,7 +2688,7 @@
         <v>176.7576554</v>
       </c>
       <c r="C209">
-        <v>0.1437445</v>
+        <v>0.1430123</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2699,7 +2699,7 @@
         <v>180.9852199</v>
       </c>
       <c r="C210">
-        <v>0.1437445</v>
+        <v>0.1430123</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2710,7 +2710,7 @@
         <v>180.9852199</v>
       </c>
       <c r="C211">
-        <v>0.1437445</v>
+        <v>0.1430123</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2721,7 +2721,7 @@
         <v>185.302971</v>
       </c>
       <c r="C212">
-        <v>0.1587328</v>
+        <v>0.157052</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2732,7 +2732,7 @@
         <v>185.302971</v>
       </c>
       <c r="C213">
-        <v>0.1587328</v>
+        <v>0.157052</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2743,7 +2743,7 @@
         <v>189.7167603</v>
       </c>
       <c r="C214">
-        <v>0.1587328</v>
+        <v>0.157052</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2754,7 +2754,7 @@
         <v>189.7167603</v>
       </c>
       <c r="C215">
-        <v>0.1587328</v>
+        <v>0.157052</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2765,7 +2765,7 @@
         <v>194.2325626</v>
       </c>
       <c r="C216">
-        <v>0.1587328</v>
+        <v>0.157052</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2776,7 +2776,7 @@
         <v>194.2325626</v>
       </c>
       <c r="C217">
-        <v>0.1587328</v>
+        <v>0.157052</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2787,7 +2787,7 @@
         <v>198.8561331</v>
       </c>
       <c r="C218">
-        <v>0.1587328</v>
+        <v>0.157052</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2798,7 +2798,7 @@
         <v>198.8561331</v>
       </c>
       <c r="C219">
-        <v>0.1587328</v>
+        <v>0.157052</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2809,7 +2809,7 @@
         <v>203.5926577</v>
       </c>
       <c r="C220">
-        <v>0.1587328</v>
+        <v>0.157052</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2820,7 +2820,7 @@
         <v>203.5926577</v>
       </c>
       <c r="C221">
-        <v>0.1587328</v>
+        <v>0.157052</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2831,7 +2831,7 @@
         <v>208.4464156</v>
       </c>
       <c r="C222">
-        <v>0.1587328</v>
+        <v>0.157052</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2842,7 +2842,7 @@
         <v>208.4464156</v>
       </c>
       <c r="C223">
-        <v>0.1587328</v>
+        <v>0.157052</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2853,7 +2853,7 @@
         <v>213.4204743</v>
       </c>
       <c r="C224">
-        <v>0.1587328</v>
+        <v>0.157052</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2864,7 +2864,7 @@
         <v>213.4204743</v>
       </c>
       <c r="C225">
-        <v>0.1587328</v>
+        <v>0.157052</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2875,7 +2875,7 @@
         <v>218.5164342</v>
       </c>
       <c r="C226">
-        <v>0.1785913</v>
+        <v>0.1751256</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2886,7 +2886,7 @@
         <v>218.5164342</v>
       </c>
       <c r="C227">
-        <v>0.1785913</v>
+        <v>0.1751256</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2897,7 +2897,7 @@
         <v>223.7342366</v>
       </c>
       <c r="C228">
-        <v>0.1785913</v>
+        <v>0.1751256</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2908,7 +2908,7 @@
         <v>223.7342366</v>
       </c>
       <c r="C229">
-        <v>0.1785913</v>
+        <v>0.1751256</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2919,7 +2919,7 @@
         <v>229.0720459</v>
       </c>
       <c r="C230">
-        <v>0.1785913</v>
+        <v>0.1751256</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2930,7 +2930,7 @@
         <v>229.0720459</v>
       </c>
       <c r="C231">
-        <v>0.1785913</v>
+        <v>0.1751256</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2941,7 +2941,7 @@
         <v>234.5262103</v>
       </c>
       <c r="C232">
-        <v>0.1785913</v>
+        <v>0.1751256</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2952,7 +2952,7 @@
         <v>234.5262103</v>
       </c>
       <c r="C233">
-        <v>0.1785913</v>
+        <v>0.1751256</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2963,7 +2963,7 @@
         <v>240.0913024</v>
       </c>
       <c r="C234">
-        <v>0.1785913</v>
+        <v>0.1751256</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2974,7 +2974,7 @@
         <v>240.0913024</v>
       </c>
       <c r="C235">
-        <v>0.1785913</v>
+        <v>0.1751256</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2985,7 +2985,7 @@
         <v>245.7602344</v>
       </c>
       <c r="C236">
-        <v>0.1785913</v>
+        <v>0.1751256</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2996,7 +2996,7 @@
         <v>245.7602344</v>
       </c>
       <c r="C237">
-        <v>0.1785913</v>
+        <v>0.1751256</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3007,7 +3007,7 @@
         <v>251.5244405</v>
       </c>
       <c r="C238">
-        <v>0.1785913</v>
+        <v>0.1751256</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3018,7 +3018,7 @@
         <v>251.5244405</v>
       </c>
       <c r="C239">
-        <v>0.1785913</v>
+        <v>0.1751256</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3029,7 +3029,7 @@
         <v>257.374114</v>
       </c>
       <c r="C240">
-        <v>0.2039839</v>
+        <v>0.1975583</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3040,7 +3040,7 @@
         <v>257.374114</v>
       </c>
       <c r="C241">
-        <v>0.2039839</v>
+        <v>0.1975583</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3051,7 +3051,7 @@
         <v>263.2984864</v>
       </c>
       <c r="C242">
-        <v>0.2039839</v>
+        <v>0.1975583</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3062,7 +3062,7 @@
         <v>263.2984864</v>
       </c>
       <c r="C243">
-        <v>0.2039839</v>
+        <v>0.1975583</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3073,7 +3073,7 @@
         <v>269.2861327</v>
       </c>
       <c r="C244">
-        <v>0.2039839</v>
+        <v>0.1975583</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3084,7 +3084,7 @@
         <v>269.2861327</v>
       </c>
       <c r="C245">
-        <v>0.2039839</v>
+        <v>0.1975583</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3095,7 +3095,7 @@
         <v>275.3252896</v>
       </c>
       <c r="C246">
-        <v>0.2039839</v>
+        <v>0.1975583</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3106,7 +3106,7 @@
         <v>275.3252896</v>
       </c>
       <c r="C247">
-        <v>0.2039839</v>
+        <v>0.1975583</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3117,7 +3117,7 @@
         <v>281.4041709</v>
       </c>
       <c r="C248">
-        <v>0.2039839</v>
+        <v>0.1975583</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3128,7 +3128,7 @@
         <v>281.4041709</v>
       </c>
       <c r="C249">
-        <v>0.2039839</v>
+        <v>0.1975583</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3139,7 +3139,7 @@
         <v>287.5112714</v>
       </c>
       <c r="C250">
-        <v>0.2039839</v>
+        <v>0.1975583</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3150,7 +3150,7 @@
         <v>287.5112714</v>
       </c>
       <c r="C251">
-        <v>0.2039839</v>
+        <v>0.1975583</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3161,7 +3161,7 @@
         <v>293.6356464</v>
       </c>
       <c r="C252">
-        <v>0.2039839</v>
+        <v>0.1975583</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3172,7 +3172,7 @@
         <v>293.6356464</v>
       </c>
       <c r="C253">
-        <v>0.2039839</v>
+        <v>0.1975583</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3183,7 +3183,7 @@
         <v>299.7671624</v>
       </c>
       <c r="C254">
-        <v>0.2348587</v>
+        <v>0.2241925</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3194,7 +3194,7 @@
         <v>299.7671624</v>
       </c>
       <c r="C255">
-        <v>0.2348587</v>
+        <v>0.2241925</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3205,7 +3205,7 @@
         <v>305.8967133</v>
       </c>
       <c r="C256">
-        <v>0.2348587</v>
+        <v>0.2241925</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3216,7 +3216,7 @@
         <v>305.8967133</v>
       </c>
       <c r="C257">
-        <v>0.2348587</v>
+        <v>0.2241925</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3227,7 +3227,7 @@
         <v>312.0164</v>
       </c>
       <c r="C258">
-        <v>0.2348587</v>
+        <v>0.2241925</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3238,7 +3238,7 @@
         <v>312.0164</v>
       </c>
       <c r="C259">
-        <v>0.2348587</v>
+        <v>0.2241925</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3249,7 +3249,7 @@
         <v>318.1196728</v>
       </c>
       <c r="C260">
-        <v>0.2348587</v>
+        <v>0.2241925</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3260,7 +3260,7 @@
         <v>318.1196728</v>
       </c>
       <c r="C261">
-        <v>0.2348587</v>
+        <v>0.2241925</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3271,7 +3271,7 @@
         <v>324.2014367</v>
       </c>
       <c r="C262">
-        <v>0.2348587</v>
+        <v>0.2241925</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3282,7 +3282,7 @@
         <v>324.2014367</v>
       </c>
       <c r="C263">
-        <v>0.2348587</v>
+        <v>0.2241925</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3293,7 +3293,7 @@
         <v>330.2581222</v>
       </c>
       <c r="C264">
-        <v>0.2348587</v>
+        <v>0.2241925</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3304,7 +3304,7 @@
         <v>330.2581222</v>
       </c>
       <c r="C265">
-        <v>0.2348587</v>
+        <v>0.2241925</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3315,7 +3315,7 @@
         <v>336.2877213</v>
       </c>
       <c r="C266">
-        <v>0.2348587</v>
+        <v>0.2241925</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3326,7 +3326,7 @@
         <v>336.2877213</v>
       </c>
       <c r="C267">
-        <v>0.2348587</v>
+        <v>0.2241925</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3337,7 +3337,7 @@
         <v>342.2897922</v>
       </c>
       <c r="C268">
-        <v>0.2699885</v>
+        <v>0.2541504</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3348,7 +3348,7 @@
         <v>342.2897922</v>
       </c>
       <c r="C269">
-        <v>0.2699885</v>
+        <v>0.2541504</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3359,7 +3359,7 @@
         <v>348.2654314</v>
       </c>
       <c r="C270">
-        <v>0.2699885</v>
+        <v>0.2541504</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3370,7 +3370,7 @@
         <v>348.2654314</v>
       </c>
       <c r="C271">
-        <v>0.2699885</v>
+        <v>0.2541504</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3381,7 +3381,7 @@
         <v>354.2172173</v>
       </c>
       <c r="C272">
-        <v>0.2699885</v>
+        <v>0.2541504</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3392,7 +3392,7 @@
         <v>354.2172173</v>
       </c>
       <c r="C273">
-        <v>0.2699885</v>
+        <v>0.2541504</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3403,7 +3403,7 @@
         <v>360.1491231</v>
       </c>
       <c r="C274">
-        <v>0.2699885</v>
+        <v>0.2541504</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3414,7 +3414,7 @@
         <v>360.1491231</v>
       </c>
       <c r="C275">
-        <v>0.2699885</v>
+        <v>0.2541504</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3425,7 +3425,7 @@
         <v>366.0664025</v>
       </c>
       <c r="C276">
-        <v>0.2699885</v>
+        <v>0.2541504</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3436,7 +3436,7 @@
         <v>366.0664025</v>
       </c>
       <c r="C277">
-        <v>0.2699885</v>
+        <v>0.2541504</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3447,7 +3447,7 @@
         <v>371.9754479</v>
       </c>
       <c r="C278">
-        <v>0.2699885</v>
+        <v>0.2541504</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3458,7 +3458,7 @@
         <v>371.9754479</v>
       </c>
       <c r="C279">
-        <v>0.2699885</v>
+        <v>0.2541504</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3469,7 +3469,7 @@
         <v>377.8836246</v>
       </c>
       <c r="C280">
-        <v>0.2699885</v>
+        <v>0.2541504</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3480,7 +3480,7 @@
         <v>377.8836246</v>
       </c>
       <c r="C281">
-        <v>0.2699885</v>
+        <v>0.2541504</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3491,7 +3491,7 @@
         <v>383.7990837</v>
       </c>
       <c r="C282">
-        <v>0.3068953</v>
+        <v>0.2857976</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3502,7 +3502,7 @@
         <v>383.7990837</v>
       </c>
       <c r="C283">
-        <v>0.3068953</v>
+        <v>0.2857976</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3513,7 +3513,7 @@
         <v>389.7305573</v>
       </c>
       <c r="C284">
-        <v>0.3068953</v>
+        <v>0.2857976</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3524,7 +3524,7 @@
         <v>389.7305573</v>
       </c>
       <c r="C285">
-        <v>0.3068953</v>
+        <v>0.2857976</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3535,7 +3535,7 @@
         <v>395.6871437</v>
       </c>
       <c r="C286">
-        <v>0.3068953</v>
+        <v>0.2857976</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3546,7 +3546,7 @@
         <v>395.6871437</v>
       </c>
       <c r="C287">
-        <v>0.3068953</v>
+        <v>0.2857976</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3557,7 +3557,7 @@
         <v>401.6780856</v>
       </c>
       <c r="C288">
-        <v>0.3068953</v>
+        <v>0.2857976</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3568,7 +3568,7 @@
         <v>401.6780856</v>
       </c>
       <c r="C289">
-        <v>0.3068953</v>
+        <v>0.2857976</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3579,7 +3579,7 @@
         <v>407.7125521</v>
       </c>
       <c r="C290">
-        <v>0.3068953</v>
+        <v>0.2857976</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3590,7 +3590,7 @@
         <v>407.7125521</v>
       </c>
       <c r="C291">
-        <v>0.3068953</v>
+        <v>0.2857976</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3601,7 +3601,7 @@
         <v>413.7994278</v>
       </c>
       <c r="C292">
-        <v>0.3068953</v>
+        <v>0.2857976</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3612,7 +3612,7 @@
         <v>413.7994278</v>
       </c>
       <c r="C293">
-        <v>0.3068953</v>
+        <v>0.2857976</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3623,7 +3623,7 @@
         <v>419.9471202</v>
       </c>
       <c r="C294">
-        <v>0.3068953</v>
+        <v>0.2857976</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3634,7 +3634,7 @@
         <v>419.9471202</v>
       </c>
       <c r="C295">
-        <v>0.3068953</v>
+        <v>0.2857976</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3645,7 +3645,7 @@
         <v>426.1633879</v>
       </c>
       <c r="C296">
-        <v>0.342424</v>
+        <v>0.3170532</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3656,7 +3656,7 @@
         <v>426.1633879</v>
       </c>
       <c r="C297">
-        <v>0.342424</v>
+        <v>0.3170532</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3667,7 +3667,7 @@
         <v>432.4551984</v>
       </c>
       <c r="C298">
-        <v>0.342424</v>
+        <v>0.3170532</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3678,7 +3678,7 @@
         <v>432.4551984</v>
       </c>
       <c r="C299">
-        <v>0.342424</v>
+        <v>0.3170532</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3689,7 +3689,7 @@
         <v>438.8286166</v>
       </c>
       <c r="C300">
-        <v>0.342424</v>
+        <v>0.3170532</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3700,7 +3700,7 @@
         <v>438.8286166</v>
       </c>
       <c r="C301">
-        <v>0.342424</v>
+        <v>0.3170532</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3711,7 +3711,7 @@
         <v>445.288728</v>
       </c>
       <c r="C302">
-        <v>0.342424</v>
+        <v>0.3170532</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3722,7 +3722,7 @@
         <v>445.288728</v>
       </c>
       <c r="C303">
-        <v>0.342424</v>
+        <v>0.3170532</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3733,7 +3733,7 @@
         <v>451.8395967</v>
       </c>
       <c r="C304">
-        <v>0.342424</v>
+        <v>0.3170532</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3744,7 +3744,7 @@
         <v>451.8395967</v>
       </c>
       <c r="C305">
-        <v>0.342424</v>
+        <v>0.3170532</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3755,7 +3755,7 @@
         <v>458.4842566</v>
       </c>
       <c r="C306">
-        <v>0.342424</v>
+        <v>0.3170532</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3766,7 +3766,7 @@
         <v>458.4842566</v>
       </c>
       <c r="C307">
-        <v>0.342424</v>
+        <v>0.3170532</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3777,7 +3777,7 @@
         <v>465.2247337</v>
       </c>
       <c r="C308">
-        <v>0.342424</v>
+        <v>0.3170532</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3788,7 +3788,7 @@
         <v>465.2247337</v>
       </c>
       <c r="C309">
-        <v>0.342424</v>
+        <v>0.3170532</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -3799,7 +3799,7 @@
         <v>472.0620954</v>
       </c>
       <c r="C310">
-        <v>0.3737477</v>
+        <v>0.3459621</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -3810,7 +3810,7 @@
         <v>472.0620954</v>
       </c>
       <c r="C311">
-        <v>0.3737477</v>
+        <v>0.3459621</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -3821,7 +3821,7 @@
         <v>478.9965221</v>
       </c>
       <c r="C312">
-        <v>0.3737477</v>
+        <v>0.3459621</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -3832,7 +3832,7 @@
         <v>478.9965221</v>
       </c>
       <c r="C313">
-        <v>0.3737477</v>
+        <v>0.3459621</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -3843,7 +3843,7 @@
         <v>486.0273964</v>
       </c>
       <c r="C314">
-        <v>0.3737477</v>
+        <v>0.3459621</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -3854,7 +3854,7 @@
         <v>486.0273964</v>
       </c>
       <c r="C315">
-        <v>0.3737477</v>
+        <v>0.3459621</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -3865,7 +3865,7 @@
         <v>493.1534042</v>
       </c>
       <c r="C316">
-        <v>0.3737477</v>
+        <v>0.3459621</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -3876,7 +3876,7 @@
         <v>493.1534042</v>
       </c>
       <c r="C317">
-        <v>0.3737477</v>
+        <v>0.3459621</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -3887,7 +3887,7 @@
         <v>500.3726428</v>
       </c>
       <c r="C318">
-        <v>0.3737477</v>
+        <v>0.3459621</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -3898,7 +3898,7 @@
         <v>500.3726428</v>
       </c>
       <c r="C319">
-        <v>0.3737477</v>
+        <v>0.3459621</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -3909,7 +3909,7 @@
         <v>507.6827323</v>
       </c>
       <c r="C320">
-        <v>0.3737477</v>
+        <v>0.3459621</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -3920,7 +3920,7 @@
         <v>507.6827323</v>
       </c>
       <c r="C321">
-        <v>0.3737477</v>
+        <v>0.3459621</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -3931,7 +3931,7 @@
         <v>515.0809261000001</v>
       </c>
       <c r="C322">
-        <v>0.3737477</v>
+        <v>0.3459621</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -3942,7 +3942,7 @@
         <v>515.0809261000001</v>
       </c>
       <c r="C323">
-        <v>0.3737477</v>
+        <v>0.3459621</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -3953,7 +3953,7 @@
         <v>522.5642172</v>
       </c>
       <c r="C324">
-        <v>0.3991903</v>
+        <v>0.3712071</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -3964,7 +3964,7 @@
         <v>522.5642172</v>
       </c>
       <c r="C325">
-        <v>0.3991903</v>
+        <v>0.3712071</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -3975,7 +3975,7 @@
         <v>530.129439</v>
       </c>
       <c r="C326">
-        <v>0.3991903</v>
+        <v>0.3712071</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -3986,7 +3986,7 @@
         <v>530.129439</v>
       </c>
       <c r="C327">
-        <v>0.3991903</v>
+        <v>0.3712071</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -3997,7 +3997,7 @@
         <v>537.7733586000001</v>
       </c>
       <c r="C328">
-        <v>0.3991903</v>
+        <v>0.3712071</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -4008,7 +4008,7 @@
         <v>537.7733586000001</v>
       </c>
       <c r="C329">
-        <v>0.3991903</v>
+        <v>0.3712071</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -4019,7 +4019,7 @@
         <v>545.4927613</v>
       </c>
       <c r="C330">
-        <v>0.3991903</v>
+        <v>0.3712071</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -4030,7 +4030,7 @@
         <v>545.4927613</v>
       </c>
       <c r="C331">
-        <v>0.3991903</v>
+        <v>0.3712071</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -4041,7 +4041,7 @@
         <v>553.2845261</v>
       </c>
       <c r="C332">
-        <v>0.3991903</v>
+        <v>0.3712071</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -4052,7 +4052,7 @@
         <v>553.2845261</v>
       </c>
       <c r="C333">
-        <v>0.3991903</v>
+        <v>0.3712071</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -4063,7 +4063,7 @@
         <v>561.1456908</v>
       </c>
       <c r="C334">
-        <v>0.3991903</v>
+        <v>0.3712071</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -4074,7 +4074,7 @@
         <v>561.1456908</v>
       </c>
       <c r="C335">
-        <v>0.3991903</v>
+        <v>0.3712071</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -4085,7 +4085,7 @@
         <v>569.0735074</v>
       </c>
       <c r="C336">
-        <v>0.3991903</v>
+        <v>0.3712071</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4096,7 +4096,7 @@
         <v>569.0735074</v>
       </c>
       <c r="C337">
-        <v>0.3991903</v>
+        <v>0.3712071</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -4107,7 +4107,7 @@
         <v>577.0654853999999</v>
       </c>
       <c r="C338">
-        <v>0.4184241</v>
+        <v>0.3922791</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -4118,7 +4118,7 @@
         <v>577.0654853999999</v>
       </c>
       <c r="C339">
-        <v>0.4184241</v>
+        <v>0.3922791</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -4129,7 +4129,7 @@
         <v>585.1194235</v>
       </c>
       <c r="C340">
-        <v>0.4184241</v>
+        <v>0.3922791</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -4140,7 +4140,7 @@
         <v>585.1194235</v>
       </c>
       <c r="C341">
-        <v>0.4184241</v>
+        <v>0.3922791</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -4151,7 +4151,7 @@
         <v>593.2334289</v>
       </c>
       <c r="C342">
-        <v>0.4184241</v>
+        <v>0.3922791</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4162,7 +4162,7 @@
         <v>593.2334289</v>
       </c>
       <c r="C343">
-        <v>0.4184241</v>
+        <v>0.3922791</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -4173,7 +4173,7 @@
         <v>601.4059228</v>
       </c>
       <c r="C344">
-        <v>0.4184241</v>
+        <v>0.3922791</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4184,7 +4184,7 @@
         <v>601.4059228</v>
       </c>
       <c r="C345">
-        <v>0.4184241</v>
+        <v>0.3922791</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4195,7 +4195,7 @@
         <v>609.6356325</v>
       </c>
       <c r="C346">
-        <v>0.4184241</v>
+        <v>0.3922791</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -4206,7 +4206,7 @@
         <v>609.6356325</v>
       </c>
       <c r="C347">
-        <v>0.4184241</v>
+        <v>0.3922791</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -4217,7 +4217,7 @@
         <v>617.9215696</v>
       </c>
       <c r="C348">
-        <v>0.4184241</v>
+        <v>0.3922791</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -4228,7 +4228,7 @@
         <v>617.9215696</v>
       </c>
       <c r="C349">
-        <v>0.4184241</v>
+        <v>0.3922791</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -4239,7 +4239,7 @@
         <v>626.2629957</v>
       </c>
       <c r="C350">
-        <v>0.4184241</v>
+        <v>0.3922791</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -4250,7 +4250,7 @@
         <v>626.2629957</v>
       </c>
       <c r="C351">
-        <v>0.4184241</v>
+        <v>0.3922791</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -4261,7 +4261,7 @@
         <v>634.6593764</v>
       </c>
       <c r="C352">
-        <v>0.432119</v>
+        <v>0.4093075</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -4272,7 +4272,7 @@
         <v>634.6593764</v>
       </c>
       <c r="C353">
-        <v>0.432119</v>
+        <v>0.4093075</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -4283,7 +4283,7 @@
         <v>643.1103266</v>
       </c>
       <c r="C354">
-        <v>0.432119</v>
+        <v>0.4093075</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -4294,7 +4294,7 @@
         <v>643.1103266</v>
       </c>
       <c r="C355">
-        <v>0.432119</v>
+        <v>0.4093075</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -4305,7 +4305,7 @@
         <v>651.6155497</v>
       </c>
       <c r="C356">
-        <v>0.432119</v>
+        <v>0.4093075</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -4316,7 +4316,7 @@
         <v>651.6155497</v>
       </c>
       <c r="C357">
-        <v>0.432119</v>
+        <v>0.4093075</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -4327,7 +4327,7 @@
         <v>660.174775</v>
       </c>
       <c r="C358">
-        <v>0.432119</v>
+        <v>0.4093075</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -4338,7 +4338,7 @@
         <v>660.174775</v>
       </c>
       <c r="C359">
-        <v>0.432119</v>
+        <v>0.4093075</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -4349,7 +4349,7 @@
         <v>668.7876973</v>
       </c>
       <c r="C360">
-        <v>0.432119</v>
+        <v>0.4093075</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -4360,7 +4360,7 @@
         <v>668.7876973</v>
       </c>
       <c r="C361">
-        <v>0.432119</v>
+        <v>0.4093075</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4371,7 +4371,7 @@
         <v>677.4539236000001</v>
       </c>
       <c r="C362">
-        <v>0.432119</v>
+        <v>0.4093075</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4382,7 +4382,7 @@
         <v>677.4539236000001</v>
       </c>
       <c r="C363">
-        <v>0.432119</v>
+        <v>0.4093075</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4393,7 +4393,7 @@
         <v>686.1729301</v>
       </c>
       <c r="C364">
-        <v>0.432119</v>
+        <v>0.4093075</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4404,7 +4404,7 @@
         <v>686.1729301</v>
       </c>
       <c r="C365">
-        <v>0.432119</v>
+        <v>0.4093075</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -4415,7 +4415,7 @@
         <v>694.9440356</v>
       </c>
       <c r="C366">
-        <v>0.4414146</v>
+        <v>0.4227556</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -4426,7 +4426,7 @@
         <v>694.9440356</v>
       </c>
       <c r="C367">
-        <v>0.4414146</v>
+        <v>0.4227556</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -4437,7 +4437,7 @@
         <v>703.7663907</v>
       </c>
       <c r="C368">
-        <v>0.4414146</v>
+        <v>0.4227556</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -4448,7 +4448,7 @@
         <v>703.7663907</v>
       </c>
       <c r="C369">
-        <v>0.4414146</v>
+        <v>0.4227556</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -4459,7 +4459,7 @@
         <v>712.6389884</v>
       </c>
       <c r="C370">
-        <v>0.4414146</v>
+        <v>0.4227556</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -4470,7 +4470,7 @@
         <v>712.6389884</v>
       </c>
       <c r="C371">
-        <v>0.4414146</v>
+        <v>0.4227556</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -4481,7 +4481,7 @@
         <v>721.5606935</v>
       </c>
       <c r="C372">
-        <v>0.4414146</v>
+        <v>0.4227556</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -4492,7 +4492,7 @@
         <v>721.5606935</v>
       </c>
       <c r="C373">
-        <v>0.4414146</v>
+        <v>0.4227556</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -4503,7 +4503,7 @@
         <v>730.5302913</v>
       </c>
       <c r="C374">
-        <v>0.4414146</v>
+        <v>0.4227556</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -4514,7 +4514,7 @@
         <v>730.5302913</v>
       </c>
       <c r="C375">
-        <v>0.4414146</v>
+        <v>0.4227556</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -4525,7 +4525,7 @@
         <v>739.5465525</v>
       </c>
       <c r="C376">
-        <v>0.4414146</v>
+        <v>0.4227556</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -4536,7 +4536,7 @@
         <v>739.5465525</v>
       </c>
       <c r="C377">
-        <v>0.4414146</v>
+        <v>0.4227556</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -4547,7 +4547,7 @@
         <v>748.6083106999999</v>
       </c>
       <c r="C378">
-        <v>0.4414146</v>
+        <v>0.4227556</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -4558,7 +4558,7 @@
         <v>748.6083106999999</v>
       </c>
       <c r="C379">
-        <v>0.4414146</v>
+        <v>0.4227556</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -4569,7 +4569,7 @@
         <v>757.7145487</v>
       </c>
       <c r="C380">
-        <v>0.4475087</v>
+        <v>0.4331636</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4580,7 +4580,7 @@
         <v>757.7145487</v>
       </c>
       <c r="C381">
-        <v>0.4475087</v>
+        <v>0.4331636</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4591,7 +4591,7 @@
         <v>766.8644861</v>
       </c>
       <c r="C382">
-        <v>0.4475087</v>
+        <v>0.4331636</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -4602,7 +4602,7 @@
         <v>766.8644861</v>
       </c>
       <c r="C383">
-        <v>0.4475087</v>
+        <v>0.4331636</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -4613,7 +4613,7 @@
         <v>776.0576649</v>
       </c>
       <c r="C384">
-        <v>0.4475087</v>
+        <v>0.4331636</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -4624,7 +4624,7 @@
         <v>776.0576649</v>
       </c>
       <c r="C385">
-        <v>0.4475087</v>
+        <v>0.4331636</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -4635,7 +4635,7 @@
         <v>785.2940261</v>
       </c>
       <c r="C386">
-        <v>0.4475087</v>
+        <v>0.4331636</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -4646,7 +4646,7 @@
         <v>785.2940261</v>
       </c>
       <c r="C387">
-        <v>0.4475087</v>
+        <v>0.4331636</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -4657,7 +4657,7 @@
         <v>794.5739724</v>
       </c>
       <c r="C388">
-        <v>0.4475087</v>
+        <v>0.4331636</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -4668,7 +4668,7 @@
         <v>794.5739724</v>
       </c>
       <c r="C389">
-        <v>0.4475087</v>
+        <v>0.4331636</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -4679,7 +4679,7 @@
         <v>803.8984137</v>
       </c>
       <c r="C390">
-        <v>0.4475087</v>
+        <v>0.4331636</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -4690,7 +4690,7 @@
         <v>803.8984137</v>
       </c>
       <c r="C391">
-        <v>0.4475087</v>
+        <v>0.4331636</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -4701,7 +4701,7 @@
         <v>813.2687899</v>
       </c>
       <c r="C392">
-        <v>0.4475087</v>
+        <v>0.4331636</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -4712,7 +4712,7 @@
         <v>813.2687899</v>
       </c>
       <c r="C393">
-        <v>0.4475087</v>
+        <v>0.4331636</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -4723,7 +4723,7 @@
         <v>822.6870723</v>
       </c>
       <c r="C394">
-        <v>0.4514434</v>
+        <v>0.4409992</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -4734,7 +4734,7 @@
         <v>822.6870723</v>
       </c>
       <c r="C395">
-        <v>0.4514434</v>
+        <v>0.4409992</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -4745,7 +4745,7 @@
         <v>832.1557392</v>
       </c>
       <c r="C396">
-        <v>0.4514434</v>
+        <v>0.4409992</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -4756,7 +4756,7 @@
         <v>832.1557392</v>
       </c>
       <c r="C397">
-        <v>0.4514434</v>
+        <v>0.4409992</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -4767,7 +4767,7 @@
         <v>841.677729</v>
       </c>
       <c r="C398">
-        <v>0.4514434</v>
+        <v>0.4409992</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -4778,7 +4778,7 @@
         <v>841.677729</v>
       </c>
       <c r="C399">
-        <v>0.4514434</v>
+        <v>0.4409992</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -4789,7 +4789,7 @@
         <v>851.2563706</v>
       </c>
       <c r="C400">
-        <v>0.4514434</v>
+        <v>0.4409992</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -4800,7 +4800,7 @@
         <v>851.2563706</v>
       </c>
       <c r="C401">
-        <v>0.4514434</v>
+        <v>0.4409992</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -4811,7 +4811,7 @@
         <v>860.8952942</v>
       </c>
       <c r="C402">
-        <v>0.4514434</v>
+        <v>0.4409992</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -4822,7 +4822,7 @@
         <v>860.8952942</v>
       </c>
       <c r="C403">
-        <v>0.4514434</v>
+        <v>0.4409992</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -4833,7 +4833,7 @@
         <v>870.5983265</v>
       </c>
       <c r="C404">
-        <v>0.4514434</v>
+        <v>0.4409992</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -4844,7 +4844,7 @@
         <v>870.5983265</v>
       </c>
       <c r="C405">
-        <v>0.4514434</v>
+        <v>0.4409992</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -4855,7 +4855,7 @@
         <v>880.3693719</v>
       </c>
       <c r="C406">
-        <v>0.4514434</v>
+        <v>0.4409992</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -4866,7 +4866,7 @@
         <v>880.3693719</v>
       </c>
       <c r="C407">
-        <v>0.4514434</v>
+        <v>0.4409992</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -4877,7 +4877,7 @@
         <v>890.2122859999999</v>
       </c>
       <c r="C408">
-        <v>0.4540283</v>
+        <v>0.4465939</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -4888,7 +4888,7 @@
         <v>890.2122859999999</v>
       </c>
       <c r="C409">
-        <v>0.4540283</v>
+        <v>0.4465939</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -4899,7 +4899,7 @@
         <v>900.1307441</v>
       </c>
       <c r="C410">
-        <v>0.4540283</v>
+        <v>0.4465939</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -4910,7 +4910,7 @@
         <v>900.1307441</v>
       </c>
       <c r="C411">
-        <v>0.4540283</v>
+        <v>0.4465939</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -4921,7 +4921,7 @@
         <v>910.1281082</v>
       </c>
       <c r="C412">
-        <v>0.4540283</v>
+        <v>0.4465939</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -4932,7 +4932,7 @@
         <v>910.1281082</v>
       </c>
       <c r="C413">
-        <v>0.4540283</v>
+        <v>0.4465939</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -4943,7 +4943,7 @@
         <v>920.2072959</v>
       </c>
       <c r="C414">
-        <v>0.4540283</v>
+        <v>0.4465939</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -4954,7 +4954,7 @@
         <v>920.2072959</v>
       </c>
       <c r="C415">
-        <v>0.4540283</v>
+        <v>0.4465939</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -4965,7 +4965,7 @@
         <v>930.3706549</v>
       </c>
       <c r="C416">
-        <v>0.4540283</v>
+        <v>0.4465939</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -4976,7 +4976,7 @@
         <v>930.3706549</v>
       </c>
       <c r="C417">
-        <v>0.4540283</v>
+        <v>0.4465939</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -4987,7 +4987,7 @@
         <v>940.6198441</v>
       </c>
       <c r="C418">
-        <v>0.4540283</v>
+        <v>0.4465939</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -4998,7 +4998,7 @@
         <v>940.6198441</v>
       </c>
       <c r="C419">
-        <v>0.4540283</v>
+        <v>0.4465939</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -5009,7 +5009,7 @@
         <v>950.955723</v>
       </c>
       <c r="C420">
-        <v>0.4540283</v>
+        <v>0.4465939</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -5020,7 +5020,7 @@
         <v>950.955723</v>
       </c>
       <c r="C421">
-        <v>0.4540283</v>
+        <v>0.4465939</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -5031,7 +5031,7 @@
         <v>961.3782521000001</v>
       </c>
       <c r="C422">
-        <v>0.4558204</v>
+        <v>0.4501237</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -5042,7 +5042,7 @@
         <v>961.3782521000001</v>
       </c>
       <c r="C423">
-        <v>0.4558204</v>
+        <v>0.4501237</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -5053,7 +5053,7 @@
         <v>971.8864038</v>
       </c>
       <c r="C424">
-        <v>0.4558204</v>
+        <v>0.4501237</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -5064,7 +5064,7 @@
         <v>971.8864038</v>
       </c>
       <c r="C425">
-        <v>0.4558204</v>
+        <v>0.4501237</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -5075,7 +5075,7 @@
         <v>982.4780847</v>
       </c>
       <c r="C426">
-        <v>0.4558204</v>
+        <v>0.4501237</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -5086,7 +5086,7 @@
         <v>982.4780847</v>
       </c>
       <c r="C427">
-        <v>0.4558204</v>
+        <v>0.4501237</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -5097,7 +5097,7 @@
         <v>993.1500708999999</v>
       </c>
       <c r="C428">
-        <v>0.4558204</v>
+        <v>0.4501237</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -5108,7 +5108,7 @@
         <v>993.1500708999999</v>
       </c>
       <c r="C429">
-        <v>0.4558204</v>
+        <v>0.4501237</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -5119,7 +5119,7 @@
         <v>1003.8979573</v>
       </c>
       <c r="C430">
-        <v>0.4558204</v>
+        <v>0.4501237</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -5130,7 +5130,7 @@
         <v>1003.8979573</v>
       </c>
       <c r="C431">
-        <v>0.4558204</v>
+        <v>0.4501237</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -5141,7 +5141,7 @@
         <v>1014.7161209</v>
       </c>
       <c r="C432">
-        <v>0.4558204</v>
+        <v>0.4501237</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -5152,7 +5152,7 @@
         <v>1014.7161209</v>
       </c>
       <c r="C433">
-        <v>0.4558204</v>
+        <v>0.4501237</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -5163,7 +5163,7 @@
         <v>1025.597702</v>
       </c>
       <c r="C434">
-        <v>0.4558204</v>
+        <v>0.4501237</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -5174,7 +5174,7 @@
         <v>1025.597702</v>
       </c>
       <c r="C435">
-        <v>0.4558204</v>
+        <v>0.4501237</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -5185,7 +5185,7 @@
         <v>1036.5346028</v>
       </c>
       <c r="C436">
-        <v>0.4571071</v>
+        <v>0.4516133</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -5196,7 +5196,7 @@
         <v>1036.5346028</v>
       </c>
       <c r="C437">
-        <v>0.4571071</v>
+        <v>0.4516133</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -5207,7 +5207,7 @@
         <v>1047.5175088</v>
       </c>
       <c r="C438">
-        <v>0.4571071</v>
+        <v>0.4516133</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -5218,7 +5218,7 @@
         <v>1047.5175088</v>
       </c>
       <c r="C439">
-        <v>0.4571071</v>
+        <v>0.4516133</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -5229,7 +5229,7 @@
         <v>1058.535933</v>
       </c>
       <c r="C440">
-        <v>0.4571071</v>
+        <v>0.4516133</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -5240,7 +5240,7 @@
         <v>1058.535933</v>
       </c>
       <c r="C441">
-        <v>0.4571071</v>
+        <v>0.4516133</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -5251,7 +5251,7 @@
         <v>1069.578287</v>
       </c>
       <c r="C442">
-        <v>0.4571071</v>
+        <v>0.4516133</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -5262,7 +5262,7 @@
         <v>1069.578287</v>
       </c>
       <c r="C443">
-        <v>0.4571071</v>
+        <v>0.4516133</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -5273,7 +5273,7 @@
         <v>1080.6319803</v>
       </c>
       <c r="C444">
-        <v>0.4571071</v>
+        <v>0.4516133</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -5284,7 +5284,7 @@
         <v>1080.6319803</v>
       </c>
       <c r="C445">
-        <v>0.4571071</v>
+        <v>0.4516133</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -5295,7 +5295,7 @@
         <v>1091.6835497</v>
       </c>
       <c r="C446">
-        <v>0.4571071</v>
+        <v>0.4516133</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -5306,7 +5306,7 @@
         <v>1091.6835497</v>
       </c>
       <c r="C447">
-        <v>0.4571071</v>
+        <v>0.4516133</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -5317,7 +5317,7 @@
         <v>1102.7188191</v>
       </c>
       <c r="C448">
-        <v>0.4571071</v>
+        <v>0.4516133</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -5328,7 +5328,7 @@
         <v>1102.7188191</v>
       </c>
       <c r="C449">
-        <v>0.4571071</v>
+        <v>0.4516133</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -5339,7 +5339,7 @@
         <v>1113.7230876</v>
       </c>
       <c r="C450">
-        <v>0.4578865</v>
+        <v>0.4509575</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -5350,7 +5350,7 @@
         <v>1113.7230876</v>
       </c>
       <c r="C451">
-        <v>0.4578865</v>
+        <v>0.4509575</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -5361,7 +5361,7 @@
         <v>1124.6813456</v>
       </c>
       <c r="C452">
-        <v>0.4578865</v>
+        <v>0.4509575</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -5372,7 +5372,7 @@
         <v>1124.6813456</v>
       </c>
       <c r="C453">
-        <v>0.4578865</v>
+        <v>0.4509575</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -5383,7 +5383,7 @@
         <v>1135.5785122</v>
       </c>
       <c r="C454">
-        <v>0.4578865</v>
+        <v>0.4509575</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -5394,7 +5394,7 @@
         <v>1135.5785122</v>
       </c>
       <c r="C455">
-        <v>0.4578865</v>
+        <v>0.4509575</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -5405,7 +5405,7 @@
         <v>1146.3996904</v>
       </c>
       <c r="C456">
-        <v>0.4578865</v>
+        <v>0.4509575</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -5416,7 +5416,7 @@
         <v>1146.3996904</v>
       </c>
       <c r="C457">
-        <v>0.4578865</v>
+        <v>0.4509575</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -5427,7 +5427,7 @@
         <v>1157.1304303</v>
       </c>
       <c r="C458">
-        <v>0.4578865</v>
+        <v>0.4509575</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -5438,7 +5438,7 @@
         <v>1157.1304303</v>
       </c>
       <c r="C459">
-        <v>0.4578865</v>
+        <v>0.4509575</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -5449,7 +5449,7 @@
         <v>1167.7569945</v>
       </c>
       <c r="C460">
-        <v>0.4578865</v>
+        <v>0.4509575</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -5460,7 +5460,7 @@
         <v>1167.7569945</v>
       </c>
       <c r="C461">
-        <v>0.4578865</v>
+        <v>0.4509575</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -5471,7 +5471,7 @@
         <v>1178.266614</v>
       </c>
       <c r="C462">
-        <v>0.4578865</v>
+        <v>0.4509575</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -5482,7 +5482,7 @@
         <v>1178.266614</v>
       </c>
       <c r="C463">
-        <v>0.4578865</v>
+        <v>0.4509575</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -5493,7 +5493,7 @@
         <v>1188.6477261</v>
       </c>
       <c r="C464">
-        <v>0.4578663</v>
+        <v>0.4479621</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -5504,7 +5504,7 @@
         <v>1188.6477261</v>
       </c>
       <c r="C465">
-        <v>0.4578663</v>
+        <v>0.4479621</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -5515,7 +5515,7 @@
         <v>1198.8901854</v>
       </c>
       <c r="C466">
-        <v>0.4578663</v>
+        <v>0.4479621</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -5526,7 +5526,7 @@
         <v>1198.8901854</v>
       </c>
       <c r="C467">
-        <v>0.4578663</v>
+        <v>0.4479621</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -5537,7 +5537,7 @@
         <v>1208.985438</v>
       </c>
       <c r="C468">
-        <v>0.4578663</v>
+        <v>0.4479621</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -5548,7 +5548,7 @@
         <v>1208.985438</v>
       </c>
       <c r="C469">
-        <v>0.4578663</v>
+        <v>0.4479621</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -5559,7 +5559,7 @@
         <v>1218.9266535</v>
       </c>
       <c r="C470">
-        <v>0.4578663</v>
+        <v>0.4479621</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -5570,7 +5570,7 @@
         <v>1218.9266535</v>
       </c>
       <c r="C471">
-        <v>0.4578663</v>
+        <v>0.4479621</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -5581,7 +5581,7 @@
         <v>1228.7088082</v>
       </c>
       <c r="C472">
-        <v>0.4578663</v>
+        <v>0.4479621</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -5592,7 +5592,7 @@
         <v>1228.7088082</v>
       </c>
       <c r="C473">
-        <v>0.4578663</v>
+        <v>0.4479621</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -5603,7 +5603,7 @@
         <v>1238.3287174</v>
       </c>
       <c r="C474">
-        <v>0.4578663</v>
+        <v>0.4479621</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -5614,7 +5614,7 @@
         <v>1238.3287174</v>
       </c>
       <c r="C475">
-        <v>0.4578663</v>
+        <v>0.4479621</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -5625,7 +5625,7 @@
         <v>1247.785016</v>
       </c>
       <c r="C476">
-        <v>0.4578663</v>
+        <v>0.4479621</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -5636,7 +5636,7 @@
         <v>1247.785016</v>
       </c>
       <c r="C477">
-        <v>0.4578663</v>
+        <v>0.4479621</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -5647,7 +5647,7 @@
         <v>1257.078089</v>
       </c>
       <c r="C478">
-        <v>0.4565129</v>
+        <v>0.4424051</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -5658,7 +5658,7 @@
         <v>1257.078089</v>
       </c>
       <c r="C479">
-        <v>0.4565129</v>
+        <v>0.4424051</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -5669,7 +5669,7 @@
         <v>1266.2099555</v>
       </c>
       <c r="C480">
-        <v>0.4565129</v>
+        <v>0.4424051</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -5680,7 +5680,7 @@
         <v>1266.2099555</v>
       </c>
       <c r="C481">
-        <v>0.4565129</v>
+        <v>0.4424051</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -5691,7 +5691,7 @@
         <v>1275.184114</v>
       </c>
       <c r="C482">
-        <v>0.4565129</v>
+        <v>0.4424051</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -5702,7 +5702,7 @@
         <v>1275.184114</v>
       </c>
       <c r="C483">
-        <v>0.4565129</v>
+        <v>0.4424051</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -5713,7 +5713,7 @@
         <v>1284.0053537</v>
       </c>
       <c r="C484">
-        <v>0.4565129</v>
+        <v>0.4424051</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -5724,7 +5724,7 @@
         <v>1284.0053537</v>
       </c>
       <c r="C485">
-        <v>0.4565129</v>
+        <v>0.4424051</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -5735,7 +5735,7 @@
         <v>1292.6795427</v>
       </c>
       <c r="C486">
-        <v>0.4565129</v>
+        <v>0.4424051</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -5746,7 +5746,7 @@
         <v>1292.6795427</v>
       </c>
       <c r="C487">
-        <v>0.4565129</v>
+        <v>0.4424051</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -5757,7 +5757,7 @@
         <v>1301.2134002</v>
       </c>
       <c r="C488">
-        <v>0.4565129</v>
+        <v>0.4424051</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -5768,7 +5768,7 @@
         <v>1301.2134002</v>
       </c>
       <c r="C489">
-        <v>0.4565129</v>
+        <v>0.4424051</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -5779,7 +5779,7 @@
         <v>1309.614262</v>
       </c>
       <c r="C490">
-        <v>0.4565129</v>
+        <v>0.4424051</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -5790,7 +5790,7 @@
         <v>1309.614262</v>
       </c>
       <c r="C491">
-        <v>0.4565129</v>
+        <v>0.4424051</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -5801,7 +5801,7 @@
         <v>1317.8898471</v>
       </c>
       <c r="C492">
-        <v>0.4531566</v>
+        <v>0.4341035</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -5812,7 +5812,7 @@
         <v>1317.8898471</v>
       </c>
       <c r="C493">
-        <v>0.4531566</v>
+        <v>0.4341035</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -5823,7 +5823,7 @@
         <v>1326.0480331</v>
       </c>
       <c r="C494">
-        <v>0.4531566</v>
+        <v>0.4341035</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -5834,7 +5834,7 @@
         <v>1326.0480331</v>
       </c>
       <c r="C495">
-        <v>0.4531566</v>
+        <v>0.4341035</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -5845,7 +5845,7 @@
         <v>1334.0966439</v>
       </c>
       <c r="C496">
-        <v>0.4531566</v>
+        <v>0.4341035</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -5856,7 +5856,7 @@
         <v>1334.0966439</v>
       </c>
       <c r="C497">
-        <v>0.4531566</v>
+        <v>0.4341035</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -5867,7 +5867,7 @@
         <v>1342.0432577</v>
       </c>
       <c r="C498">
-        <v>0.4531566</v>
+        <v>0.4341035</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -5878,7 +5878,7 @@
         <v>1342.0432577</v>
       </c>
       <c r="C499">
-        <v>0.4531566</v>
+        <v>0.4341035</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -5889,7 +5889,7 @@
         <v>1349.8950344</v>
       </c>
       <c r="C500">
-        <v>0.4531566</v>
+        <v>0.4341035</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -5900,7 +5900,7 @@
         <v>1349.8950344</v>
       </c>
       <c r="C501">
-        <v>0.4531566</v>
+        <v>0.4341035</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -5911,7 +5911,7 @@
         <v>1357.6585675</v>
       </c>
       <c r="C502">
-        <v>0.4531566</v>
+        <v>0.4341035</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -5922,7 +5922,7 @@
         <v>1357.6585675</v>
       </c>
       <c r="C503">
-        <v>0.4531566</v>
+        <v>0.4341035</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -5933,7 +5933,7 @@
         <v>1365.3397597</v>
       </c>
       <c r="C504">
-        <v>0.4531566</v>
+        <v>0.4341035</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -5944,7 +5944,7 @@
         <v>1365.3397597</v>
       </c>
       <c r="C505">
-        <v>0.4531566</v>
+        <v>0.4341035</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -5955,7 +5955,7 @@
         <v>1372.9437229</v>
       </c>
       <c r="C506">
-        <v>0.4471211</v>
+        <v>0.4229575</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -5966,7 +5966,7 @@
         <v>1372.9437229</v>
       </c>
       <c r="C507">
-        <v>0.4471211</v>
+        <v>0.4229575</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -5977,7 +5977,7 @@
         <v>1380.4747028</v>
       </c>
       <c r="C508">
-        <v>0.4471211</v>
+        <v>0.4229575</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -5988,7 +5988,7 @@
         <v>1380.4747028</v>
       </c>
       <c r="C509">
-        <v>0.4471211</v>
+        <v>0.4229575</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -5999,7 +5999,7 @@
         <v>1387.9360282</v>
       </c>
       <c r="C510">
-        <v>0.4471211</v>
+        <v>0.4229575</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -6010,7 +6010,7 @@
         <v>1387.9360282</v>
       </c>
       <c r="C511">
-        <v>0.4471211</v>
+        <v>0.4229575</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -6021,7 +6021,7 @@
         <v>1395.3300834</v>
       </c>
       <c r="C512">
-        <v>0.4471211</v>
+        <v>0.4229575</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -6032,7 +6032,7 @@
         <v>1395.3300834</v>
       </c>
       <c r="C513">
-        <v>0.4471211</v>
+        <v>0.4229575</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -6043,7 +6043,7 @@
         <v>1402.658306</v>
       </c>
       <c r="C514">
-        <v>0.4471211</v>
+        <v>0.4229575</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -6054,7 +6054,7 @@
         <v>1402.658306</v>
       </c>
       <c r="C515">
-        <v>0.4471211</v>
+        <v>0.4229575</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -6065,7 +6065,7 @@
         <v>1409.9212085</v>
       </c>
       <c r="C516">
-        <v>0.4471211</v>
+        <v>0.4229575</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -6076,7 +6076,7 @@
         <v>1409.9212085</v>
       </c>
       <c r="C517">
-        <v>0.4471211</v>
+        <v>0.4229575</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -6087,7 +6087,7 @@
         <v>1417.1184255</v>
       </c>
       <c r="C518">
-        <v>0.4471211</v>
+        <v>0.4229575</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -6098,7 +6098,7 @@
         <v>1417.1184255</v>
       </c>
       <c r="C519">
-        <v>0.4471211</v>
+        <v>0.4229575</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -6109,7 +6109,7 @@
         <v>1424.2487853</v>
       </c>
       <c r="C520">
-        <v>0.4378224</v>
+        <v>0.4089429</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -6120,7 +6120,7 @@
         <v>1424.2487853</v>
       </c>
       <c r="C521">
-        <v>0.4378224</v>
+        <v>0.4089429</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -6131,7 +6131,7 @@
         <v>1431.3104091</v>
       </c>
       <c r="C522">
-        <v>0.4378224</v>
+        <v>0.4089429</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -6142,7 +6142,7 @@
         <v>1431.3104091</v>
       </c>
       <c r="C523">
-        <v>0.4378224</v>
+        <v>0.4089429</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -6153,7 +6153,7 @@
         <v>1438.300834</v>
       </c>
       <c r="C524">
-        <v>0.4378224</v>
+        <v>0.4089429</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -6164,7 +6164,7 @@
         <v>1438.300834</v>
       </c>
       <c r="C525">
-        <v>0.4378224</v>
+        <v>0.4089429</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -6175,7 +6175,7 @@
         <v>1445.2171625</v>
       </c>
       <c r="C526">
-        <v>0.4378224</v>
+        <v>0.4089429</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -6186,7 +6186,7 @@
         <v>1445.2171625</v>
       </c>
       <c r="C527">
-        <v>0.4378224</v>
+        <v>0.4089429</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -6197,7 +6197,7 @@
         <v>1452.0562341</v>
       </c>
       <c r="C528">
-        <v>0.4378224</v>
+        <v>0.4089429</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -6208,7 +6208,7 @@
         <v>1452.0562341</v>
       </c>
       <c r="C529">
-        <v>0.4378224</v>
+        <v>0.4089429</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -6219,7 +6219,7 @@
         <v>1458.8148176</v>
       </c>
       <c r="C530">
-        <v>0.4378224</v>
+        <v>0.4089429</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -6230,7 +6230,7 @@
         <v>1458.8148176</v>
       </c>
       <c r="C531">
-        <v>0.4378224</v>
+        <v>0.4089429</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -6241,7 +6241,7 @@
         <v>1465.4898201</v>
       </c>
       <c r="C532">
-        <v>0.4378224</v>
+        <v>0.4089429</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -6252,7 +6252,7 @@
         <v>1465.4898201</v>
       </c>
       <c r="C533">
-        <v>0.4378224</v>
+        <v>0.4089429</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -6263,7 +6263,7 @@
         <v>1472.0785062</v>
       </c>
       <c r="C534">
-        <v>0.4248062</v>
+        <v>0.3920433</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -6274,7 +6274,7 @@
         <v>1472.0785062</v>
       </c>
       <c r="C535">
-        <v>0.4248062</v>
+        <v>0.3920433</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -6285,7 +6285,7 @@
         <v>1478.5787216</v>
       </c>
       <c r="C536">
-        <v>0.4248062</v>
+        <v>0.3920433</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -6296,7 +6296,7 @@
         <v>1478.5787216</v>
       </c>
       <c r="C537">
-        <v>0.4248062</v>
+        <v>0.3920433</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -6307,7 +6307,7 @@
         <v>1484.9891145</v>
       </c>
       <c r="C538">
-        <v>0.4248062</v>
+        <v>0.3920433</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -6318,7 +6318,7 @@
         <v>1484.9891145</v>
       </c>
       <c r="C539">
-        <v>0.4248062</v>
+        <v>0.3920433</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -6329,7 +6329,7 @@
         <v>1491.3093441</v>
       </c>
       <c r="C540">
-        <v>0.4248062</v>
+        <v>0.3920433</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -6340,7 +6340,7 @@
         <v>1491.3093441</v>
       </c>
       <c r="C541">
-        <v>0.4248062</v>
+        <v>0.3920433</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -6351,7 +6351,7 @@
         <v>1497.5402706</v>
       </c>
       <c r="C542">
-        <v>0.4248062</v>
+        <v>0.3920433</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -6362,7 +6362,7 @@
         <v>1497.5402706</v>
       </c>
       <c r="C543">
-        <v>0.4248062</v>
+        <v>0.3920433</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -6373,7 +6373,7 @@
         <v>1503.6841168</v>
       </c>
       <c r="C544">
-        <v>0.4248062</v>
+        <v>0.3920433</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -6384,7 +6384,7 @@
         <v>1503.6841168</v>
       </c>
       <c r="C545">
-        <v>0.4248062</v>
+        <v>0.3920433</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -6395,7 +6395,7 @@
         <v>1509.7445937</v>
       </c>
       <c r="C546">
-        <v>0.4248062</v>
+        <v>0.3920433</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -6406,7 +6406,7 @@
         <v>1509.7445937</v>
       </c>
       <c r="C547">
-        <v>0.4248062</v>
+        <v>0.3920433</v>
       </c>
     </row>
     <row r="548" spans="1:3">
@@ -6417,7 +6417,7 @@
         <v>1515.7269841</v>
       </c>
       <c r="C548">
-        <v>0.4077434</v>
+        <v>0.3721496</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -6428,7 +6428,7 @@
         <v>1515.7269841</v>
       </c>
       <c r="C549">
-        <v>0.4077434</v>
+        <v>0.3721496</v>
       </c>
     </row>
     <row r="550" spans="1:3">
@@ -6439,7 +6439,7 @@
         <v>1521.6381781</v>
       </c>
       <c r="C550">
-        <v>0.4077434</v>
+        <v>0.3721496</v>
       </c>
     </row>
     <row r="551" spans="1:3">
@@ -6450,7 +6450,7 @@
         <v>1521.6381781</v>
       </c>
       <c r="C551">
-        <v>0.4077434</v>
+        <v>0.3721496</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -6461,7 +6461,7 @@
         <v>1527.4866555</v>
       </c>
       <c r="C552">
-        <v>0.4077434</v>
+        <v>0.3721496</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -6472,7 +6472,7 @@
         <v>1527.4866555</v>
       </c>
       <c r="C553">
-        <v>0.4077434</v>
+        <v>0.3721496</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -6483,7 +6483,7 @@
         <v>1533.2824131</v>
       </c>
       <c r="C554">
-        <v>0.4077434</v>
+        <v>0.3721496</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -6494,7 +6494,7 @@
         <v>1533.2824131</v>
       </c>
       <c r="C555">
-        <v>0.4077434</v>
+        <v>0.3721496</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -6505,7 +6505,7 @@
         <v>1539.0368331</v>
       </c>
       <c r="C556">
-        <v>0.4077434</v>
+        <v>0.3721496</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -6516,7 +6516,7 @@
         <v>1539.0368331</v>
       </c>
       <c r="C557">
-        <v>0.4077434</v>
+        <v>0.3721496</v>
       </c>
     </row>
     <row r="558" spans="1:3">
@@ -6527,7 +6527,7 @@
         <v>1544.7624907</v>
       </c>
       <c r="C558">
-        <v>0.4077434</v>
+        <v>0.3721496</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -6538,7 +6538,7 @@
         <v>1544.7624907</v>
       </c>
       <c r="C559">
-        <v>0.4077434</v>
+        <v>0.3721496</v>
       </c>
     </row>
     <row r="560" spans="1:3">
@@ -6549,7 +6549,7 @@
         <v>1550.4729005</v>
       </c>
       <c r="C560">
-        <v>0.4077434</v>
+        <v>0.3721496</v>
       </c>
     </row>
     <row r="561" spans="1:3">
@@ -6560,7 +6560,7 @@
         <v>1550.4729005</v>
       </c>
       <c r="C561">
-        <v>0.4077434</v>
+        <v>0.3721496</v>
       </c>
     </row>
     <row r="562" spans="1:3">
@@ -6571,7 +6571,7 @@
         <v>1556.1821988</v>
       </c>
       <c r="C562">
-        <v>0.3864316</v>
+        <v>0.3489852</v>
       </c>
     </row>
     <row r="563" spans="1:3">
@@ -6582,7 +6582,7 @@
         <v>1556.1821988</v>
       </c>
       <c r="C563">
-        <v>0.3864316</v>
+        <v>0.3489852</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -6593,7 +6593,7 @@
         <v>1561.9047625</v>
       </c>
       <c r="C564">
-        <v>0.3864316</v>
+        <v>0.3489852</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -6604,7 +6604,7 @@
         <v>1561.9047625</v>
       </c>
       <c r="C565">
-        <v>0.3864316</v>
+        <v>0.3489852</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -6615,7 +6615,7 @@
         <v>1567.6547623</v>
       </c>
       <c r="C566">
-        <v>0.3864316</v>
+        <v>0.3489852</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -6626,7 +6626,7 @@
         <v>1567.6547623</v>
       </c>
       <c r="C567">
-        <v>0.3864316</v>
+        <v>0.3489852</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -6637,7 +6637,7 @@
         <v>1573.4456546</v>
       </c>
       <c r="C568">
-        <v>0.3864316</v>
+        <v>0.3489852</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -6648,7 +6648,7 @@
         <v>1573.4456546</v>
       </c>
       <c r="C569">
-        <v>0.3864316</v>
+        <v>0.3489852</v>
       </c>
     </row>
     <row r="570" spans="1:3">
@@ -6659,7 +6659,7 @@
         <v>1579.2896146</v>
       </c>
       <c r="C570">
-        <v>0.3864316</v>
+        <v>0.3489852</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -6670,7 +6670,7 @@
         <v>1579.2896146</v>
       </c>
       <c r="C571">
-        <v>0.3864316</v>
+        <v>0.3489852</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -6681,7 +6681,7 @@
         <v>1585.1969217</v>
       </c>
       <c r="C572">
-        <v>0.3864316</v>
+        <v>0.3489852</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -6692,7 +6692,7 @@
         <v>1585.1969217</v>
       </c>
       <c r="C573">
-        <v>0.3864316</v>
+        <v>0.3489852</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -6703,7 +6703,7 @@
         <v>1591.1753137</v>
       </c>
       <c r="C574">
-        <v>0.3864316</v>
+        <v>0.3489852</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -6714,7 +6714,7 @@
         <v>1591.1753137</v>
       </c>
       <c r="C575">
-        <v>0.3864316</v>
+        <v>0.3489852</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -6725,7 +6725,7 @@
         <v>1597.2293352</v>
       </c>
       <c r="C576">
-        <v>0.3608309</v>
+        <v>0.3221468</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -6736,7 +6736,7 @@
         <v>1597.2293352</v>
       </c>
       <c r="C577">
-        <v>0.3608309</v>
+        <v>0.3221468</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -6747,7 +6747,7 @@
         <v>1603.3597178</v>
       </c>
       <c r="C578">
-        <v>0.3608309</v>
+        <v>0.3221468</v>
       </c>
     </row>
     <row r="579" spans="1:3">
@@ -6758,7 +6758,7 @@
         <v>1609.5628387</v>
       </c>
       <c r="C579">
-        <v>0.3608309</v>
+        <v>0.3221468</v>
       </c>
     </row>
     <row r="580" spans="1:3">
@@ -6769,7 +6769,7 @@
         <v>1615.8303139</v>
       </c>
       <c r="C580">
-        <v>0.3608309</v>
+        <v>0.3221468</v>
       </c>
     </row>
     <row r="581" spans="1:3">
@@ -6780,7 +6780,7 @@
         <v>1622.1487902</v>
       </c>
       <c r="C581">
-        <v>0.3608309</v>
+        <v>0.3221468</v>
       </c>
     </row>
     <row r="582" spans="1:3">
@@ -6791,7 +6791,7 @@
         <v>1628.4999946</v>
       </c>
       <c r="C582">
-        <v>0.3608309</v>
+        <v>0.3221468</v>
       </c>
     </row>
     <row r="583" spans="1:3">
@@ -6802,7 +6802,7 @@
         <v>1634.861091</v>
       </c>
       <c r="C583">
-        <v>0.3608309</v>
+        <v>0.3221468</v>
       </c>
     </row>
     <row r="584" spans="1:3">
@@ -6813,7 +6813,7 @@
         <v>1641.2053705</v>
       </c>
       <c r="C584">
-        <v>0.3311315</v>
+        <v>0.2913711</v>
       </c>
     </row>
     <row r="585" spans="1:3">
@@ -6824,7 +6824,7 @@
         <v>1647.5032695</v>
       </c>
       <c r="C585">
-        <v>0.3311315</v>
+        <v>0.2913711</v>
       </c>
     </row>
     <row r="586" spans="1:3">
@@ -6835,7 +6835,7 @@
         <v>1653.723667</v>
       </c>
       <c r="C586">
-        <v>0.3311315</v>
+        <v>0.2913711</v>
       </c>
     </row>
     <row r="587" spans="1:3">
@@ -6846,7 +6846,7 @@
         <v>1659.8353736</v>
       </c>
       <c r="C587">
-        <v>0.3311315</v>
+        <v>0.2913711</v>
       </c>
     </row>
     <row r="588" spans="1:3">
@@ -6857,7 +6857,7 @@
         <v>1665.8086876</v>
       </c>
       <c r="C588">
-        <v>0.3311315</v>
+        <v>0.2913711</v>
       </c>
     </row>
     <row r="589" spans="1:3">
@@ -6868,7 +6868,7 @@
         <v>1671.6168765</v>
       </c>
       <c r="C589">
-        <v>0.3311315</v>
+        <v>0.2913711</v>
       </c>
     </row>
     <row r="590" spans="1:3">
@@ -6879,7 +6879,7 @@
         <v>1677.2374406</v>
       </c>
       <c r="C590">
-        <v>0.3311315</v>
+        <v>0.2913711</v>
       </c>
     </row>
     <row r="591" spans="1:3">
@@ -6890,7 +6890,7 @@
         <v>1682.6530403</v>
       </c>
       <c r="C591">
-        <v>0.2978617</v>
+        <v>0.2570824</v>
       </c>
     </row>
     <row r="592" spans="1:3">
@@ -6901,7 +6901,7 @@
         <v>1687.8520115</v>
       </c>
       <c r="C592">
-        <v>0.2978617</v>
+        <v>0.2570824</v>
       </c>
     </row>
     <row r="593" spans="1:3">
@@ -6912,7 +6912,7 @@
         <v>1692.828442</v>
       </c>
       <c r="C593">
-        <v>0.2978617</v>
+        <v>0.2570824</v>
       </c>
     </row>
     <row r="594" spans="1:3">
@@ -6923,7 +6923,7 @@
         <v>1697.5818396</v>
       </c>
       <c r="C594">
-        <v>0.2978617</v>
+        <v>0.2570824</v>
       </c>
     </row>
     <row r="595" spans="1:3">
@@ -6934,7 +6934,7 @@
         <v>1702.1164638</v>
       </c>
       <c r="C595">
-        <v>0.2978617</v>
+        <v>0.2570824</v>
       </c>
     </row>
     <row r="596" spans="1:3">
@@ -6945,7 +6945,7 @@
         <v>1706.44042</v>
       </c>
       <c r="C596">
-        <v>0.2978617</v>
+        <v>0.2570824</v>
       </c>
     </row>
     <row r="597" spans="1:3">
@@ -6956,7 +6956,7 @@
         <v>1710.5646298</v>
       </c>
       <c r="C597">
-        <v>0.2978617</v>
+        <v>0.2570824</v>
       </c>
     </row>
     <row r="598" spans="1:3">
@@ -6967,7 +6967,7 @@
         <v>1714.5017804</v>
       </c>
       <c r="C598">
-        <v>0.2620732</v>
+        <v>0.2209961</v>
       </c>
     </row>
     <row r="599" spans="1:3">
@@ -6978,7 +6978,7 @@
         <v>1718.2653417</v>
       </c>
       <c r="C599">
-        <v>0.2620732</v>
+        <v>0.2209961</v>
       </c>
     </row>
     <row r="600" spans="1:3">
@@ -6989,7 +6989,7 @@
         <v>1721.8687145</v>
       </c>
       <c r="C600">
-        <v>0.2620732</v>
+        <v>0.2209961</v>
       </c>
     </row>
     <row r="601" spans="1:3">
@@ -7000,7 +7000,7 @@
         <v>1725.324546</v>
       </c>
       <c r="C601">
-        <v>0.2620732</v>
+        <v>0.2209961</v>
       </c>
     </row>
     <row r="602" spans="1:3">
@@ -7011,7 +7011,7 @@
         <v>1728.6442289</v>
       </c>
       <c r="C602">
-        <v>0.2620732</v>
+        <v>0.2209961</v>
       </c>
     </row>
     <row r="603" spans="1:3">
@@ -7022,7 +7022,7 @@
         <v>1731.8375798</v>
       </c>
       <c r="C603">
-        <v>0.2620732</v>
+        <v>0.2209961</v>
       </c>
     </row>
     <row r="604" spans="1:3">
@@ -7033,7 +7033,7 @@
         <v>1734.91268</v>
       </c>
       <c r="C604">
-        <v>0.2620732</v>
+        <v>0.2209961</v>
       </c>
     </row>
     <row r="605" spans="1:3">
@@ -7044,7 +7044,7 @@
         <v>1737.8758573</v>
       </c>
       <c r="C605">
-        <v>0.2255623</v>
+        <v>0.186137</v>
       </c>
     </row>
     <row r="606" spans="1:3">
@@ -7055,7 +7055,7 @@
         <v>1740.7317782</v>
       </c>
       <c r="C606">
-        <v>0.2255623</v>
+        <v>0.186137</v>
       </c>
     </row>
     <row r="607" spans="1:3">
@@ -7066,7 +7066,7 @@
         <v>1743.4836283</v>
       </c>
       <c r="C607">
-        <v>0.2255623</v>
+        <v>0.186137</v>
       </c>
     </row>
     <row r="608" spans="1:3">
@@ -7077,7 +7077,7 @@
         <v>1746.1333506</v>
       </c>
       <c r="C608">
-        <v>0.2255623</v>
+        <v>0.186137</v>
       </c>
     </row>
     <row r="609" spans="1:3">
@@ -7088,7 +7088,7 @@
         <v>1748.6819236</v>
       </c>
       <c r="C609">
-        <v>0.2255623</v>
+        <v>0.186137</v>
       </c>
     </row>
     <row r="610" spans="1:3">
@@ -7099,7 +7099,7 @@
         <v>1751.1296555</v>
       </c>
       <c r="C610">
-        <v>0.2255623</v>
+        <v>0.186137</v>
       </c>
     </row>
     <row r="611" spans="1:3">
@@ -7110,7 +7110,7 @@
         <v>1753.4764807</v>
       </c>
       <c r="C611">
-        <v>0.2255623</v>
+        <v>0.186137</v>
       </c>
     </row>
     <row r="612" spans="1:3">
@@ -7121,7 +7121,7 @@
         <v>1755.7222429</v>
       </c>
       <c r="C612">
-        <v>0.1908385</v>
+        <v>0.1557954</v>
       </c>
     </row>
     <row r="613" spans="1:3">
@@ -7132,7 +7132,7 @@
         <v>1757.8669521</v>
       </c>
       <c r="C613">
-        <v>0.1908385</v>
+        <v>0.1557954</v>
       </c>
     </row>
     <row r="614" spans="1:3">
@@ -7143,7 +7143,7 @@
         <v>1759.911007</v>
       </c>
       <c r="C614">
-        <v>0.1908385</v>
+        <v>0.1557954</v>
       </c>
     </row>
     <row r="615" spans="1:3">
@@ -7154,7 +7154,7 @@
         <v>1761.8553738</v>
       </c>
       <c r="C615">
-        <v>0.1908385</v>
+        <v>0.1557954</v>
       </c>
     </row>
     <row r="616" spans="1:3">
@@ -7165,7 +7165,7 @@
         <v>1763.701716</v>
       </c>
       <c r="C616">
-        <v>0.1908385</v>
+        <v>0.1557954</v>
       </c>
     </row>
     <row r="617" spans="1:3">
@@ -7176,7 +7176,7 @@
         <v>1765.4524707</v>
       </c>
       <c r="C617">
-        <v>0.1908385</v>
+        <v>0.1557954</v>
       </c>
     </row>
     <row r="618" spans="1:3">
@@ -7187,7 +7187,7 @@
         <v>1767.1108711</v>
       </c>
       <c r="C618">
-        <v>0.1908385</v>
+        <v>0.1557954</v>
       </c>
     </row>
     <row r="619" spans="1:3">
@@ -7198,7 +7198,7 @@
         <v>1768.6809151</v>
       </c>
       <c r="C619">
-        <v>0.1605056</v>
+        <v>0.1320531</v>
       </c>
     </row>
     <row r="620" spans="1:3">
@@ -7209,7 +7209,7 @@
         <v>1770.1672849</v>
       </c>
       <c r="C620">
-        <v>0.1605056</v>
+        <v>0.1320531</v>
       </c>
     </row>
     <row r="621" spans="1:3">
@@ -7220,7 +7220,7 @@
         <v>1771.5752228</v>
       </c>
       <c r="C621">
-        <v>0.1605056</v>
+        <v>0.1320531</v>
       </c>
     </row>
     <row r="622" spans="1:3">
@@ -7231,7 +7231,7 @@
         <v>1772.9103716</v>
       </c>
       <c r="C622">
-        <v>0.1605056</v>
+        <v>0.1320531</v>
       </c>
     </row>
     <row r="623" spans="1:3">
@@ -7242,7 +7242,7 @@
         <v>1774.1785908</v>
       </c>
       <c r="C623">
-        <v>0.1605056</v>
+        <v>0.1320531</v>
       </c>
     </row>
     <row r="624" spans="1:3">
@@ -7253,7 +7253,7 @@
         <v>1775.3857587</v>
       </c>
       <c r="C624">
-        <v>0.1605056</v>
+        <v>0.1320531</v>
       </c>
     </row>
     <row r="625" spans="1:3">
@@ -7264,7 +7264,7 @@
         <v>1776.5375739</v>
       </c>
       <c r="C625">
-        <v>0.1605056</v>
+        <v>0.1320531</v>
       </c>
     </row>
     <row r="626" spans="1:3">
@@ -7275,7 +7275,7 @@
         <v>1777.6393677</v>
       </c>
       <c r="C626">
-        <v>0.1362931</v>
+        <v>0.115144</v>
       </c>
     </row>
     <row r="627" spans="1:3">
@@ -7286,7 +7286,7 @@
         <v>1778.6959382</v>
       </c>
       <c r="C627">
-        <v>0.1362931</v>
+        <v>0.115144</v>
       </c>
     </row>
     <row r="628" spans="1:3">
@@ -7297,7 +7297,7 @@
         <v>1779.711418</v>
       </c>
       <c r="C628">
-        <v>0.1362931</v>
+        <v>0.115144</v>
       </c>
     </row>
     <row r="629" spans="1:3">
@@ -7308,7 +7308,7 @@
         <v>1780.6891797</v>
       </c>
       <c r="C629">
-        <v>0.1362931</v>
+        <v>0.115144</v>
       </c>
     </row>
     <row r="630" spans="1:3">
@@ -7319,7 +7319,7 @@
         <v>1781.6317868</v>
       </c>
       <c r="C630">
-        <v>0.1362931</v>
+        <v>0.115144</v>
       </c>
     </row>
     <row r="631" spans="1:3">
@@ -7330,7 +7330,7 @@
         <v>1782.5409906</v>
       </c>
       <c r="C631">
-        <v>0.1362931</v>
+        <v>0.115144</v>
       </c>
     </row>
     <row r="632" spans="1:3">
@@ -7341,7 +7341,7 @@
         <v>1783.4177705</v>
       </c>
       <c r="C632">
-        <v>0.1362931</v>
+        <v>0.115144</v>
       </c>
     </row>
     <row r="633" spans="1:3">
@@ -7352,7 +7352,7 @@
         <v>1784.262415</v>
       </c>
       <c r="C633">
-        <v>0.1185185</v>
+        <v>0.1039632</v>
       </c>
     </row>
     <row r="634" spans="1:3">
@@ -7363,7 +7363,7 @@
         <v>1785.0746347</v>
       </c>
       <c r="C634">
-        <v>0.1185185</v>
+        <v>0.1039632</v>
       </c>
     </row>
     <row r="635" spans="1:3">
@@ -7374,7 +7374,7 @@
         <v>1785.8536987</v>
       </c>
       <c r="C635">
-        <v>0.1185185</v>
+        <v>0.1039632</v>
       </c>
     </row>
     <row r="636" spans="1:3">
@@ -7385,7 +7385,7 @@
         <v>1786.5985836</v>
       </c>
       <c r="C636">
-        <v>0.1185185</v>
+        <v>0.1039632</v>
       </c>
     </row>
     <row r="637" spans="1:3">
@@ -7396,7 +7396,7 @@
         <v>1787.3081252</v>
       </c>
       <c r="C637">
-        <v>0.1185185</v>
+        <v>0.1039632</v>
       </c>
     </row>
     <row r="638" spans="1:3">
@@ -7407,7 +7407,7 @@
         <v>1787.9811617</v>
       </c>
       <c r="C638">
-        <v>0.1185185</v>
+        <v>0.1039632</v>
       </c>
     </row>
     <row r="639" spans="1:3">
@@ -7418,7 +7418,7 @@
         <v>1788.616662</v>
       </c>
       <c r="C639">
-        <v>0.1185185</v>
+        <v>0.1039632</v>
       </c>
     </row>
     <row r="640" spans="1:3">
@@ -7429,7 +7429,7 @@
         <v>1789.2138295</v>
       </c>
       <c r="C640">
-        <v>0.1063507</v>
+        <v>0.0969589</v>
       </c>
     </row>
     <row r="641" spans="1:3">
@@ -7440,7 +7440,7 @@
         <v>1789.7721814</v>
       </c>
       <c r="C641">
-        <v>0.1063507</v>
+        <v>0.0969589</v>
       </c>
     </row>
     <row r="642" spans="1:3">
@@ -7451,7 +7451,7 @@
         <v>1790.2915979</v>
       </c>
       <c r="C642">
-        <v>0.1063507</v>
+        <v>0.0969589</v>
       </c>
     </row>
     <row r="643" spans="1:3">
@@ -7462,7 +7462,7 @@
         <v>1790.7723457</v>
       </c>
       <c r="C643">
-        <v>0.1063507</v>
+        <v>0.0969589</v>
       </c>
     </row>
     <row r="644" spans="1:3">
@@ -7473,7 +7473,7 @@
         <v>1791.215075</v>
       </c>
       <c r="C644">
-        <v>0.1063507</v>
+        <v>0.0969589</v>
       </c>
     </row>
     <row r="645" spans="1:3">
@@ -7484,7 +7484,7 @@
         <v>1791.6207972</v>
       </c>
       <c r="C645">
-        <v>0.1063507</v>
+        <v>0.0969589</v>
       </c>
     </row>
     <row r="646" spans="1:3">
@@ -7495,7 +7495,7 @@
         <v>1791.9908455</v>
       </c>
       <c r="C646">
-        <v>0.1063507</v>
+        <v>0.0969589</v>
       </c>
     </row>
     <row r="647" spans="1:3">
@@ -7506,7 +7506,7 @@
         <v>1792.3268251</v>
       </c>
       <c r="C647">
-        <v>0.0980685</v>
+        <v>0.0923351</v>
       </c>
     </row>
     <row r="648" spans="1:3">
@@ -7517,7 +7517,7 @@
         <v>1792.6305569</v>
       </c>
       <c r="C648">
-        <v>0.0980685</v>
+        <v>0.0923351</v>
       </c>
     </row>
     <row r="649" spans="1:3">
@@ -7528,7 +7528,7 @@
         <v>1792.9040192</v>
       </c>
       <c r="C649">
-        <v>0.0980685</v>
+        <v>0.0923351</v>
       </c>
     </row>
     <row r="650" spans="1:3">
@@ -7539,7 +7539,7 @@
         <v>1793.1492913</v>
       </c>
       <c r="C650">
-        <v>0.0980685</v>
+        <v>0.0923351</v>
       </c>
     </row>
     <row r="651" spans="1:3">
@@ -7550,7 +7550,7 @@
         <v>1793.368501</v>
       </c>
       <c r="C651">
-        <v>0.0980685</v>
+        <v>0.0923351</v>
       </c>
     </row>
     <row r="652" spans="1:3">
@@ -7561,7 +7561,7 @@
         <v>1793.5637784</v>
       </c>
       <c r="C652">
-        <v>0.0980685</v>
+        <v>0.0923351</v>
       </c>
     </row>
     <row r="653" spans="1:3">
@@ -7572,7 +7572,7 @@
         <v>1793.7372166</v>
       </c>
       <c r="C653">
-        <v>0.0980685</v>
+        <v>0.0923351</v>
       </c>
     </row>
     <row r="654" spans="1:3">
@@ -7583,7 +7583,7 @@
         <v>1793.89084</v>
       </c>
       <c r="C654">
-        <v>0.0980685</v>
+        <v>0.0923351</v>
       </c>
     </row>
   </sheetData>
